--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A8FED6-D601-429F-B367-3C89C5968D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588AF46-409A-4E68-A1D8-00F1B1D39113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="912" windowWidth="18324" windowHeight="10476" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
   <sheets>
-    <sheet name="Git" sheetId="5" r:id="rId1"/>
-    <sheet name="FrontEnd" sheetId="1" r:id="rId2"/>
-    <sheet name="JS" sheetId="2" r:id="rId3"/>
-    <sheet name="BackEnd" sheetId="4" r:id="rId4"/>
-    <sheet name="DBs" sheetId="3" r:id="rId5"/>
-    <sheet name="Tools" sheetId="6" r:id="rId6"/>
-    <sheet name="Deployment" sheetId="7" r:id="rId7"/>
-    <sheet name="API&amp;Apps" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Git" sheetId="5" r:id="rId2"/>
+    <sheet name="FrontEnd" sheetId="1" r:id="rId3"/>
+    <sheet name="JS" sheetId="2" r:id="rId4"/>
+    <sheet name="BackEnd" sheetId="4" r:id="rId5"/>
+    <sheet name="DBs" sheetId="3" r:id="rId6"/>
+    <sheet name="Tools" sheetId="6" r:id="rId7"/>
+    <sheet name="Deployment" sheetId="7" r:id="rId8"/>
+    <sheet name="API&amp;Apps" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>HTML</t>
   </si>
@@ -148,6 +149,36 @@
   </si>
   <si>
     <t>BS4</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tasks</t>
   </si>
 </sst>
 </file>
@@ -200,10 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,11 +552,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3508D929-6C25-4219-A8C4-9C9D600FE419}">
+  <dimension ref="B2:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EFA564-A352-4EFC-BF21-52BE8DFAD643}">
   <dimension ref="B4:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BBAB55-5468-434B-AC58-C09E59C688A8}">
   <dimension ref="B3:D50"/>
   <sheetViews>
@@ -633,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E46D9D-71AC-4265-BB6B-1BBB11C067B7}">
   <dimension ref="B5:D38"/>
   <sheetViews>
@@ -710,7 +853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48996FFF-950C-4D2D-9336-82794A1B6477}">
   <dimension ref="B3:D17"/>
   <sheetViews>
@@ -783,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049E4EC1-37FB-4497-BD8C-46A56C1CCA54}">
   <dimension ref="B5:D6"/>
   <sheetViews>
@@ -825,7 +968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EC3F2-65C6-4D2D-B380-9602B0A5942D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -839,12 +982,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07737D6A-753F-4508-9891-E1AFFB0919CE}">
   <dimension ref="B4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,12 +1015,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F1E11-7D44-4442-9F12-7117151BC988}">
   <dimension ref="B25:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588AF46-409A-4E68-A1D8-00F1B1D39113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E2E04-B02E-444E-84FB-44AEFDDCC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="912" windowWidth="18324" windowHeight="10476" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="2020" sheetId="9" r:id="rId1"/>
     <sheet name="Git" sheetId="5" r:id="rId2"/>
     <sheet name="FrontEnd" sheetId="1" r:id="rId3"/>
     <sheet name="JS" sheetId="2" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>HTML</t>
   </si>
@@ -172,20 +172,44 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>tasks</t>
+  </si>
+  <si>
+    <t>Week / Day</t>
+  </si>
+  <si>
+    <t>Making learning plan</t>
+  </si>
+  <si>
+    <t>Daily coding: RandomIntegerGenerator.js</t>
+  </si>
+  <si>
+    <t>Daily coding: findWordInMatrix.js - only first part of code executed</t>
+  </si>
+  <si>
+    <t>Hakerrank: 30 days of coding -  day3.js (map function: print vowels and then conosant of the word)</t>
+  </si>
+  <si>
+    <t>Daily coding: consecutiveSequence.js</t>
+  </si>
+  <si>
+    <t>Update learning plan</t>
+  </si>
+  <si>
+    <t>FCC: GitHub intro</t>
+  </si>
+  <si>
+    <t>FCC: Git commit messages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,16 +233,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -226,17 +264,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,109 +805,2423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3508D929-6C25-4219-A8C4-9C9D600FE419}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B1:AP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="38.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="38.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="38.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="38.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="38.44140625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="38.44140625" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="38.44140625" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="38.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="38.44140625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="38.44140625" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1"/>
+    <col min="32" max="32" width="38.44140625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="34" max="34" width="38.44140625" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="38.44140625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="38" max="38" width="38.44140625" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" customWidth="1"/>
+    <col min="40" max="40" width="38.44140625" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" customWidth="1"/>
+    <col min="42" max="42" width="38.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17">
+        <f>C2+1</f>
+        <v>35</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17">
+        <f>E2+1</f>
+        <v>36</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17">
+        <f>G2+1</f>
+        <v>37</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="17">
+        <f t="shared" ref="K2" si="0">I2+1</f>
+        <v>38</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17">
+        <f t="shared" ref="M2" si="1">K2+1</f>
+        <v>39</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17">
+        <f t="shared" ref="O2" si="2">M2+1</f>
+        <v>40</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="17">
+        <f t="shared" ref="Q2" si="3">O2+1</f>
+        <v>41</v>
+      </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="17">
+        <f t="shared" ref="S2" si="4">Q2+1</f>
+        <v>42</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="17">
+        <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="C2" s="3">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2">
-        <v>35</v>
-      </c>
-      <c r="F2">
+      <c r="V2" s="18"/>
+      <c r="W2" s="17">
+        <f t="shared" ref="W2" si="6">U2+1</f>
+        <v>44</v>
+      </c>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="17">
+        <f t="shared" ref="Y2" si="7">W2+1</f>
+        <v>45</v>
+      </c>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="17">
+        <f t="shared" ref="AA2" si="8">Y2+1</f>
+        <v>46</v>
+      </c>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="17">
+        <f t="shared" ref="AC2" si="9">AA2+1</f>
+        <v>47</v>
+      </c>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="17">
+        <f t="shared" ref="AE2" si="10">AC2+1</f>
+        <v>48</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="17">
+        <f t="shared" ref="AG2" si="11">AE2+1</f>
+        <v>49</v>
+      </c>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="17">
+        <f t="shared" ref="AI2" si="12">AG2+1</f>
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="17">
+        <f t="shared" ref="AK2" si="13">AI2+1</f>
+        <v>51</v>
+      </c>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="17">
+        <f t="shared" ref="AM2" si="14">AK2+1</f>
+        <v>52</v>
+      </c>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="17">
+        <f t="shared" ref="AO2" si="15">AM2+1</f>
+        <v>53</v>
+      </c>
+      <c r="AP2" s="18"/>
+    </row>
+    <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="24"/>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G2">
+      <c r="C4" s="22">
+        <f>DATE(2020,8,17)</f>
+        <v>44060</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="23">
+        <f>C34+1</f>
+        <v>44067</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16">
+        <f>E34+1</f>
+        <v>44074</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="16">
+        <f>G34+1</f>
+        <v>44081</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="16">
+        <f>I34+1</f>
+        <v>44088</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="16">
+        <f>K34+1</f>
+        <v>44095</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="16">
+        <f>M34+1</f>
+        <v>44102</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16">
+        <f>O34+1</f>
+        <v>44109</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="16">
+        <f>Q34+1</f>
+        <v>44116</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="16">
+        <f>S34+1</f>
+        <v>44123</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="16">
+        <f>U34+1</f>
+        <v>44130</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="16">
+        <f>W34+1</f>
+        <v>44137</v>
+      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="16">
+        <f>Y34+1</f>
+        <v>44144</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="16">
+        <f>AA34+1</f>
+        <v>44151</v>
+      </c>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="16">
+        <f>AC34+1</f>
+        <v>44158</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="16">
+        <f>AE34+1</f>
+        <v>44165</v>
+      </c>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="16">
+        <f>AG34+1</f>
+        <v>44172</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="16">
+        <f>AI34+1</f>
+        <v>44179</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="16">
+        <f>AK34+1</f>
+        <v>44186</v>
+      </c>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="16">
+        <f>AM34+1</f>
+        <v>44193</v>
+      </c>
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="7"/>
+    </row>
+    <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="7"/>
+    </row>
+    <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="7"/>
+    </row>
+    <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="8"/>
+    </row>
+    <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="C9" s="23">
+        <f>C4+1</f>
+        <v>44061</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="23">
+        <f>E4+1</f>
+        <v>44068</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13">
+        <f>G4+1</f>
+        <v>44075</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13">
+        <f>I4+1</f>
+        <v>44082</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="13">
+        <f>K4+1</f>
+        <v>44089</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="13">
+        <f>M4+1</f>
+        <v>44096</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="13">
+        <f>O4+1</f>
+        <v>44103</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="13">
+        <f>Q4+1</f>
+        <v>44110</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="13">
+        <f>S4+1</f>
+        <v>44117</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="13">
+        <f>U4+1</f>
+        <v>44124</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="13">
+        <f>W4+1</f>
+        <v>44131</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="13">
+        <f>Y4+1</f>
+        <v>44138</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="13">
+        <f>AA4+1</f>
+        <v>44145</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="13">
+        <f>AC4+1</f>
+        <v>44152</v>
+      </c>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="13">
+        <f>AE4+1</f>
+        <v>44159</v>
+      </c>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="13">
+        <f>AG4+1</f>
+        <v>44166</v>
+      </c>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="13">
+        <f>AI4+1</f>
+        <v>44173</v>
+      </c>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="13">
+        <f>AK4+1</f>
+        <v>44180</v>
+      </c>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="13">
+        <f>AM4+1</f>
+        <v>44187</v>
+      </c>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="13">
+        <f>AO4+1</f>
+        <v>44194</v>
+      </c>
+      <c r="AP9" s="6"/>
+    </row>
+    <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="7"/>
+    </row>
+    <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="7"/>
+    </row>
+    <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="7"/>
+    </row>
+    <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="8"/>
+    </row>
+    <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
+      <c r="C14" s="23">
+        <f>C9+1</f>
+        <v>44062</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="23">
+        <f>E9+1</f>
+        <v>44069</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16">
+        <f>G9+1</f>
+        <v>44076</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="16">
+        <f>I9+1</f>
+        <v>44083</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="16">
+        <f>K9+1</f>
+        <v>44090</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="16">
+        <f>M9+1</f>
+        <v>44097</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="16">
+        <f>O9+1</f>
+        <v>44104</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="16">
+        <f>Q9+1</f>
+        <v>44111</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="16">
+        <f>S9+1</f>
+        <v>44118</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="16">
+        <f>U9+1</f>
+        <v>44125</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="16">
+        <f>W9+1</f>
+        <v>44132</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="16">
+        <f>Y9+1</f>
+        <v>44139</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="16">
+        <f>AA9+1</f>
+        <v>44146</v>
+      </c>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="16">
+        <f>AC9+1</f>
+        <v>44153</v>
+      </c>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="16">
+        <f>AE9+1</f>
+        <v>44160</v>
+      </c>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="16">
+        <f>AG9+1</f>
+        <v>44167</v>
+      </c>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="16">
+        <f>AI9+1</f>
+        <v>44174</v>
+      </c>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="16">
+        <f>AK9+1</f>
+        <v>44181</v>
+      </c>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="16">
+        <f>AM9+1</f>
+        <v>44188</v>
+      </c>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="16">
+        <f>AO9+1</f>
+        <v>44195</v>
+      </c>
+      <c r="AP14" s="6"/>
+    </row>
+    <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="7"/>
+    </row>
+    <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="7"/>
+    </row>
+    <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="7"/>
+    </row>
+    <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="8"/>
+    </row>
+    <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J2">
+      <c r="C19" s="23">
+        <f>C14+1</f>
+        <v>44063</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="23">
+        <f>E14+1</f>
+        <v>44070</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="13">
+        <f>G14+1</f>
+        <v>44077</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="13">
+        <f>I14+1</f>
+        <v>44084</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="13">
+        <f>K14+1</f>
+        <v>44091</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="13">
+        <f>M14+1</f>
+        <v>44098</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="13">
+        <f>O14+1</f>
+        <v>44105</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="13">
+        <f>Q14+1</f>
+        <v>44112</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="13">
+        <f>S14+1</f>
+        <v>44119</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="13">
+        <f>U14+1</f>
+        <v>44126</v>
+      </c>
+      <c r="V19" s="6"/>
+      <c r="W19" s="13">
+        <f>W14+1</f>
+        <v>44133</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="13">
+        <f>Y14+1</f>
+        <v>44140</v>
+      </c>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="13">
+        <f>AA14+1</f>
+        <v>44147</v>
+      </c>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="13">
+        <f>AC14+1</f>
+        <v>44154</v>
+      </c>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="13">
+        <f>AE14+1</f>
+        <v>44161</v>
+      </c>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="13">
+        <f>AG14+1</f>
+        <v>44168</v>
+      </c>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="13">
+        <f>AI14+1</f>
+        <v>44175</v>
+      </c>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="13">
+        <f>AK14+1</f>
+        <v>44182</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="13">
+        <f>AM14+1</f>
+        <v>44189</v>
+      </c>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="13">
+        <f>AO14+1</f>
+        <v>44196</v>
+      </c>
+      <c r="AP19" s="6"/>
+    </row>
+    <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="7"/>
+    </row>
+    <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="7"/>
+    </row>
+    <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="7"/>
+    </row>
+    <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="8"/>
+    </row>
+    <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C24" s="23">
+        <f>C19+1</f>
+        <v>44064</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="23">
+        <f>E19+1</f>
+        <v>44071</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="13">
+        <f>G19+1</f>
+        <v>44078</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="13">
+        <f>I19+1</f>
+        <v>44085</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="13">
+        <f>K19+1</f>
+        <v>44092</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="13">
+        <f>M19+1</f>
+        <v>44099</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="13">
+        <f>O19+1</f>
+        <v>44106</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="13">
+        <f>Q19+1</f>
+        <v>44113</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="13">
+        <f>S19+1</f>
+        <v>44120</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="13">
+        <f>U19+1</f>
+        <v>44127</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="13">
+        <f>W19+1</f>
+        <v>44134</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="13">
+        <f>Y19+1</f>
+        <v>44141</v>
+      </c>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="13">
+        <f>AA19+1</f>
+        <v>44148</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="13">
+        <f>AC19+1</f>
+        <v>44155</v>
+      </c>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="13">
+        <f>AE19+1</f>
+        <v>44162</v>
+      </c>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="13">
+        <f>AG19+1</f>
+        <v>44169</v>
+      </c>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="13">
+        <f>AI19+1</f>
+        <v>44176</v>
+      </c>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="13">
+        <f>AK19+1</f>
+        <v>44183</v>
+      </c>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="13">
+        <f>AM19+1</f>
+        <v>44190</v>
+      </c>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="13">
+        <f>AO19+1</f>
+        <v>44197</v>
+      </c>
+      <c r="AP24" s="6"/>
+    </row>
+    <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="7"/>
+    </row>
+    <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="7"/>
+    </row>
+    <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="7"/>
+    </row>
+    <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="8"/>
+    </row>
+    <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C29" s="23">
+        <f>C24+1</f>
+        <v>44065</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="23">
+        <f>E24+1</f>
+        <v>44072</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="16">
+        <f>G24+1</f>
+        <v>44079</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="16">
+        <f>I24+1</f>
+        <v>44086</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="16">
+        <f>K24+1</f>
+        <v>44093</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="16">
+        <f>M24+1</f>
+        <v>44100</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="16">
+        <f>O24+1</f>
+        <v>44107</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="16">
+        <f>Q24+1</f>
+        <v>44114</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="16">
+        <f>S24+1</f>
+        <v>44121</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="16">
+        <f>U24+1</f>
+        <v>44128</v>
+      </c>
+      <c r="V29" s="6"/>
+      <c r="W29" s="16">
+        <f>W24+1</f>
+        <v>44135</v>
+      </c>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="16">
+        <f>Y24+1</f>
+        <v>44142</v>
+      </c>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="16">
+        <f>AA24+1</f>
+        <v>44149</v>
+      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="16">
+        <f>AC24+1</f>
+        <v>44156</v>
+      </c>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="16">
+        <f>AE24+1</f>
+        <v>44163</v>
+      </c>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="16">
+        <f>AG24+1</f>
+        <v>44170</v>
+      </c>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="16">
+        <f>AI24+1</f>
+        <v>44177</v>
+      </c>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="16">
+        <f>AK24+1</f>
+        <v>44184</v>
+      </c>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="16">
+        <f>AM24+1</f>
+        <v>44191</v>
+      </c>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="16">
+        <f>AO24+1</f>
+        <v>44198</v>
+      </c>
+      <c r="AP29" s="6"/>
+    </row>
+    <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="7"/>
+    </row>
+    <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="7"/>
+    </row>
+    <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="7"/>
+    </row>
+    <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="25"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="8"/>
+    </row>
+    <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
+      <c r="C34" s="23">
+        <f>C29+1</f>
+        <v>44066</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="23">
+        <f>E29+1</f>
+        <v>44073</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="13">
+        <f>G29+1</f>
+        <v>44080</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="13">
+        <f>I29+1</f>
+        <v>44087</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="13">
+        <f>K29+1</f>
+        <v>44094</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="13">
+        <f>M29+1</f>
+        <v>44101</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="13">
+        <f>O29+1</f>
+        <v>44108</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="13">
+        <f>Q29+1</f>
+        <v>44115</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="13">
+        <f>S29+1</f>
+        <v>44122</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="13">
+        <f>U29+1</f>
+        <v>44129</v>
+      </c>
+      <c r="V34" s="6"/>
+      <c r="W34" s="13">
+        <f>W29+1</f>
+        <v>44136</v>
+      </c>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="13">
+        <f>Y29+1</f>
+        <v>44143</v>
+      </c>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="13">
+        <f>AA29+1</f>
+        <v>44150</v>
+      </c>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="13">
+        <f>AC29+1</f>
+        <v>44157</v>
+      </c>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="13">
+        <f>AE29+1</f>
+        <v>44164</v>
+      </c>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="13">
+        <f>AG29+1</f>
+        <v>44171</v>
+      </c>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="13">
+        <f>AI29+1</f>
+        <v>44178</v>
+      </c>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="13">
+        <f>AK29+1</f>
+        <v>44185</v>
+      </c>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="13">
+        <f>AM29+1</f>
+        <v>44192</v>
+      </c>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="13">
+        <f>AO29+1</f>
+        <v>44199</v>
+      </c>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="7"/>
+    </row>
+    <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="7"/>
+    </row>
+    <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="7"/>
+    </row>
+    <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AO24:AO28"/>
+    <mergeCell ref="AO29:AO33"/>
+    <mergeCell ref="AO34:AO38"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO4:AO8"/>
+    <mergeCell ref="AO9:AO13"/>
+    <mergeCell ref="AO14:AO18"/>
+    <mergeCell ref="AO19:AO23"/>
+    <mergeCell ref="AK24:AK28"/>
+    <mergeCell ref="AK29:AK33"/>
+    <mergeCell ref="AK34:AK38"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AM4:AM8"/>
+    <mergeCell ref="AM9:AM13"/>
+    <mergeCell ref="AM14:AM18"/>
+    <mergeCell ref="AM19:AM23"/>
+    <mergeCell ref="AM24:AM28"/>
+    <mergeCell ref="AM29:AM33"/>
+    <mergeCell ref="AM34:AM38"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AK4:AK8"/>
+    <mergeCell ref="AK9:AK13"/>
+    <mergeCell ref="AK14:AK18"/>
+    <mergeCell ref="AK19:AK23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{8E38AB8E-A5B6-4D09-8D84-186226DBF6E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E2E04-B02E-444E-84FB-44AEFDDCC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0F61B-8BF9-4D73-A524-42626FFB4A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>HTML</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>FCC: Git commit messages</t>
+  </si>
+  <si>
+    <t>Daily coding: GoldbachConjecture.js</t>
   </si>
 </sst>
 </file>
@@ -445,16 +448,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,32 +481,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,10 +811,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,111 +867,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="22">
         <v>34</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17">
+      <c r="J2" s="23"/>
+      <c r="K2" s="22">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="17">
+      <c r="L2" s="23"/>
+      <c r="M2" s="22">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="17">
+      <c r="N2" s="23"/>
+      <c r="O2" s="22">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="17">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="22">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17">
+      <c r="R2" s="23"/>
+      <c r="S2" s="22">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="22">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="17">
+      <c r="V2" s="23"/>
+      <c r="W2" s="22">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="22">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="17">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="22">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="22">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="17">
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="22">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="17">
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="22">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="17">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="22">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="17">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="22">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="17">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="22">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="17">
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="22">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="18"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1091,107 +1094,107 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="16">
+      <c r="AI4" s="15">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="16">
+      <c r="AM4" s="15">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="16">
+      <c r="AO4" s="15">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
@@ -1205,41 +1208,41 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="14"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="14"/>
+      <c r="Y5" s="16"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="14"/>
+      <c r="AA5" s="16"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="14"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="14"/>
+      <c r="AE5" s="16"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="14"/>
+      <c r="AG5" s="16"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="14"/>
+      <c r="AI5" s="16"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="14"/>
+      <c r="AK5" s="16"/>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="14"/>
+      <c r="AM5" s="16"/>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="14"/>
+      <c r="AO5" s="16"/>
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1250,41 +1253,41 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="14"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="14"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="16"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="14"/>
+      <c r="Y6" s="16"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="14"/>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="14"/>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="14"/>
+      <c r="AE6" s="16"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="14"/>
+      <c r="AG6" s="16"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="14"/>
+      <c r="AI6" s="16"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="14"/>
+      <c r="AK6" s="16"/>
       <c r="AL6" s="7"/>
-      <c r="AM6" s="14"/>
+      <c r="AM6" s="16"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="14"/>
+      <c r="AO6" s="16"/>
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1293,41 +1296,41 @@
       <c r="D7" s="9"/>
       <c r="E7" s="20"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="14"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="16"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="14"/>
+      <c r="AA7" s="16"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="14"/>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="16"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="14"/>
+      <c r="AG7" s="16"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="14"/>
+      <c r="AI7" s="16"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="14"/>
+      <c r="AK7" s="16"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="14"/>
+      <c r="AM7" s="16"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="14"/>
+      <c r="AO7" s="16"/>
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1336,145 +1339,145 @@
       <c r="D8" s="11"/>
       <c r="E8" s="21"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="15"/>
+      <c r="AC8" s="18"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="15"/>
+      <c r="AE8" s="18"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="15"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="15"/>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="15"/>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="15"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="15"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="13">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="13">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="13">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="13">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="13">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="13">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="13">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="13">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="13">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="13">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="13">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="13">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="13">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="13">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="13">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="13">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="13">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="13">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
@@ -1488,41 +1491,41 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="14"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="14"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="14"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="14"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="16"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="14"/>
+      <c r="AA10" s="16"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="14"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="14"/>
+      <c r="AE10" s="16"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="14"/>
+      <c r="AG10" s="16"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="14"/>
+      <c r="AI10" s="16"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="14"/>
+      <c r="AK10" s="16"/>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="14"/>
+      <c r="AM10" s="16"/>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="14"/>
+      <c r="AO10" s="16"/>
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,41 +1534,41 @@
       <c r="D11" s="9"/>
       <c r="E11" s="20"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="14"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="14"/>
+      <c r="W11" s="16"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="16"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="14"/>
+      <c r="AC11" s="16"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="14"/>
+      <c r="AE11" s="16"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="14"/>
+      <c r="AG11" s="16"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="14"/>
+      <c r="AI11" s="16"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="14"/>
+      <c r="AK11" s="16"/>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="14"/>
+      <c r="AM11" s="16"/>
       <c r="AN11" s="7"/>
-      <c r="AO11" s="14"/>
+      <c r="AO11" s="16"/>
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,41 +1577,41 @@
       <c r="D12" s="9"/>
       <c r="E12" s="20"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="14"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="14"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="14"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="14"/>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="14"/>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="14"/>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="14"/>
+      <c r="AE12" s="16"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="14"/>
+      <c r="AG12" s="16"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="14"/>
+      <c r="AI12" s="16"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="14"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="14"/>
+      <c r="AM12" s="16"/>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="14"/>
+      <c r="AO12" s="16"/>
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,426 +1620,426 @@
       <c r="D13" s="11"/>
       <c r="E13" s="21"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="15"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="15"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="15"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="15"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="15"/>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="15"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="15"/>
+      <c r="AC13" s="18"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="15"/>
+      <c r="AE13" s="18"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="15"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="15"/>
+      <c r="AI13" s="18"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="15"/>
+      <c r="AK13" s="18"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="15"/>
+      <c r="AM13" s="18"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="15"/>
+      <c r="AO13" s="18"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="16">
+      <c r="Q14" s="15">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="16">
+      <c r="S14" s="15">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="16">
+      <c r="U14" s="15">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="16">
+      <c r="W14" s="15">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="16">
+      <c r="Y14" s="15">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="16">
+      <c r="AA14" s="15">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="16">
+      <c r="AC14" s="15">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="16">
+      <c r="AE14" s="15">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="16">
+      <c r="AG14" s="15">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="16">
+      <c r="AI14" s="15">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="16">
+      <c r="AK14" s="15">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="16">
+      <c r="AM14" s="15">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="16">
+      <c r="AO14" s="15">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="14"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="14"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="14"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="14"/>
+      <c r="W15" s="16"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="14"/>
+      <c r="Y15" s="16"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="14"/>
+      <c r="AA15" s="16"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="14"/>
+      <c r="AC15" s="16"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="14"/>
+      <c r="AE15" s="16"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="14"/>
+      <c r="AG15" s="16"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="14"/>
+      <c r="AI15" s="16"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="14"/>
+      <c r="AK15" s="16"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="14"/>
+      <c r="AM15" s="16"/>
       <c r="AN15" s="7"/>
-      <c r="AO15" s="14"/>
+      <c r="AO15" s="16"/>
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="20"/>
       <c r="D16" s="9"/>
       <c r="E16" s="20"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="14"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="14"/>
+      <c r="W16" s="16"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="14"/>
+      <c r="Y16" s="16"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="14"/>
+      <c r="AA16" s="16"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="14"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="14"/>
+      <c r="AE16" s="16"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="14"/>
+      <c r="AG16" s="16"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="14"/>
+      <c r="AI16" s="16"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="14"/>
+      <c r="AK16" s="16"/>
       <c r="AL16" s="7"/>
-      <c r="AM16" s="14"/>
+      <c r="AM16" s="16"/>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="14"/>
+      <c r="AO16" s="16"/>
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20"/>
       <c r="D17" s="9"/>
       <c r="E17" s="20"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="16"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="14"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="14"/>
+      <c r="W17" s="16"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="14"/>
+      <c r="Y17" s="16"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="14"/>
+      <c r="AA17" s="16"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="14"/>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="14"/>
+      <c r="AE17" s="16"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="14"/>
+      <c r="AG17" s="16"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="14"/>
+      <c r="AI17" s="16"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="14"/>
+      <c r="AK17" s="16"/>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="14"/>
+      <c r="AM17" s="16"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="14"/>
+      <c r="AO17" s="16"/>
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="21"/>
       <c r="D18" s="11"/>
       <c r="E18" s="21"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="14"/>
+      <c r="O18" s="16"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="14"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="16"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="14"/>
+      <c r="Y18" s="16"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="14"/>
+      <c r="AA18" s="16"/>
       <c r="AB18" s="8"/>
-      <c r="AC18" s="14"/>
+      <c r="AC18" s="16"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="14"/>
+      <c r="AE18" s="16"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="14"/>
+      <c r="AG18" s="16"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="14"/>
+      <c r="AI18" s="16"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="14"/>
+      <c r="AK18" s="16"/>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="14"/>
+      <c r="AM18" s="16"/>
       <c r="AN18" s="8"/>
-      <c r="AO18" s="14"/>
+      <c r="AO18" s="16"/>
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <f>C14+1</f>
         <v>44063</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="13">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="13">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="13">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="13">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="13">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="13">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="13">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="13">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="13">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="13">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="13">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="13">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="13">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="13">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="13">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="13">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="13">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="13">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
@@ -2045,46 +2048,46 @@
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="14"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="14"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="14"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="14"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="14"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="14"/>
+      <c r="Y20" s="16"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="14"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="14"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="14"/>
+      <c r="AE20" s="16"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="14"/>
+      <c r="AG20" s="16"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="14"/>
+      <c r="AI20" s="16"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="14"/>
+      <c r="AK20" s="16"/>
       <c r="AL20" s="7"/>
-      <c r="AM20" s="14"/>
+      <c r="AM20" s="16"/>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="14"/>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,41 +2096,41 @@
       <c r="D21" s="9"/>
       <c r="E21" s="20"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="14"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="14"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="14"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="14"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="14"/>
+      <c r="Y21" s="16"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="14"/>
+      <c r="AA21" s="16"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="14"/>
+      <c r="AC21" s="16"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="14"/>
+      <c r="AE21" s="16"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="14"/>
+      <c r="AG21" s="16"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="14"/>
+      <c r="AI21" s="16"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="14"/>
+      <c r="AK21" s="16"/>
       <c r="AL21" s="7"/>
-      <c r="AM21" s="14"/>
+      <c r="AM21" s="16"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="14"/>
+      <c r="AO21" s="16"/>
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,41 +2139,41 @@
       <c r="D22" s="9"/>
       <c r="E22" s="20"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="14"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="16"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="14"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="14"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="14"/>
+      <c r="W22" s="16"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="14"/>
+      <c r="Y22" s="16"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="14"/>
+      <c r="AA22" s="16"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="14"/>
+      <c r="AC22" s="16"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="14"/>
+      <c r="AE22" s="16"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="14"/>
+      <c r="AG22" s="16"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="14"/>
+      <c r="AI22" s="16"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="14"/>
+      <c r="AK22" s="16"/>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="14"/>
+      <c r="AM22" s="16"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="14"/>
+      <c r="AO22" s="16"/>
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2179,143 +2182,145 @@
       <c r="D23" s="11"/>
       <c r="E23" s="21"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="15"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="15"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="15"/>
+      <c r="W23" s="18"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="15"/>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="15"/>
+      <c r="AA23" s="18"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="15"/>
+      <c r="AC23" s="18"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="15"/>
+      <c r="AE23" s="18"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="15"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="15"/>
+      <c r="AI23" s="18"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="15"/>
+      <c r="AK23" s="18"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="15"/>
+      <c r="AM23" s="18"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="15"/>
+      <c r="AO23" s="18"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="19">
         <f>C19+1</f>
         <v>44064</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="23">
+      <c r="D24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="13">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="13">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="13">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="13">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="13">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="13">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="13">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="13">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="13">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="13">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="13">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="13">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="13">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="13">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="13">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="13">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="13">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="13">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
@@ -2327,41 +2332,41 @@
       <c r="D25" s="9"/>
       <c r="E25" s="20"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="14"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="16"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="14"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="14"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="14"/>
+      <c r="W25" s="16"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="14"/>
+      <c r="Y25" s="16"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="14"/>
+      <c r="AA25" s="16"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="14"/>
+      <c r="AC25" s="16"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="14"/>
+      <c r="AE25" s="16"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="14"/>
+      <c r="AG25" s="16"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="14"/>
+      <c r="AI25" s="16"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="14"/>
+      <c r="AK25" s="16"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="14"/>
+      <c r="AM25" s="16"/>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="14"/>
+      <c r="AO25" s="16"/>
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,41 +2375,41 @@
       <c r="D26" s="9"/>
       <c r="E26" s="20"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="14"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="14"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="14"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="14"/>
+      <c r="W26" s="16"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="14"/>
+      <c r="Y26" s="16"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="14"/>
+      <c r="AA26" s="16"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="14"/>
+      <c r="AC26" s="16"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="14"/>
+      <c r="AE26" s="16"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="14"/>
+      <c r="AG26" s="16"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="14"/>
+      <c r="AI26" s="16"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="14"/>
+      <c r="AK26" s="16"/>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="14"/>
+      <c r="AM26" s="16"/>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="14"/>
+      <c r="AO26" s="16"/>
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2413,41 +2418,41 @@
       <c r="D27" s="9"/>
       <c r="E27" s="20"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="14"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="16"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="14"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="14"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="14"/>
+      <c r="W27" s="16"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="14"/>
+      <c r="Y27" s="16"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="14"/>
+      <c r="AA27" s="16"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="14"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="14"/>
+      <c r="AE27" s="16"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="14"/>
+      <c r="AG27" s="16"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="14"/>
+      <c r="AI27" s="16"/>
       <c r="AJ27" s="7"/>
-      <c r="AK27" s="14"/>
+      <c r="AK27" s="16"/>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="14"/>
+      <c r="AM27" s="16"/>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="14"/>
+      <c r="AO27" s="16"/>
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2456,420 +2461,420 @@
       <c r="D28" s="11"/>
       <c r="E28" s="21"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="15"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="15"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="15"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="15"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="15"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="15"/>
+      <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="15"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="15"/>
+      <c r="AC28" s="18"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="15"/>
+      <c r="AE28" s="18"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="15"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="15"/>
+      <c r="AI28" s="18"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="15"/>
+      <c r="AK28" s="18"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="15"/>
+      <c r="AM28" s="18"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="15"/>
+      <c r="AO28" s="18"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="16">
+      <c r="O29" s="15">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="16">
+      <c r="Q29" s="15">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="16">
+      <c r="S29" s="15">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="16">
+      <c r="U29" s="15">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="16">
+      <c r="W29" s="15">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="16">
+      <c r="Y29" s="15">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="16">
+      <c r="AA29" s="15">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="16">
+      <c r="AC29" s="15">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="16">
+      <c r="AE29" s="15">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="16">
+      <c r="AG29" s="15">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="16">
+      <c r="AI29" s="15">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="16">
+      <c r="AK29" s="15">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="16">
+      <c r="AM29" s="15">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="16">
+      <c r="AO29" s="15">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="20"/>
       <c r="D30" s="9"/>
       <c r="E30" s="20"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="14"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="16"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="14"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="14"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="14"/>
+      <c r="W30" s="16"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="14"/>
+      <c r="Y30" s="16"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="14"/>
+      <c r="AA30" s="16"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="14"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="14"/>
+      <c r="AE30" s="16"/>
       <c r="AF30" s="7"/>
-      <c r="AG30" s="14"/>
+      <c r="AG30" s="16"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="14"/>
+      <c r="AI30" s="16"/>
       <c r="AJ30" s="7"/>
-      <c r="AK30" s="14"/>
+      <c r="AK30" s="16"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="14"/>
+      <c r="AM30" s="16"/>
       <c r="AN30" s="7"/>
-      <c r="AO30" s="14"/>
+      <c r="AO30" s="16"/>
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="20"/>
       <c r="D31" s="9"/>
       <c r="E31" s="20"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="14"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="14"/>
+      <c r="O31" s="16"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="14"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="14"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="14"/>
+      <c r="W31" s="16"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="14"/>
+      <c r="Y31" s="16"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="14"/>
+      <c r="AA31" s="16"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="14"/>
+      <c r="AC31" s="16"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="14"/>
+      <c r="AE31" s="16"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="14"/>
+      <c r="AG31" s="16"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="14"/>
+      <c r="AI31" s="16"/>
       <c r="AJ31" s="7"/>
-      <c r="AK31" s="14"/>
+      <c r="AK31" s="16"/>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="14"/>
+      <c r="AM31" s="16"/>
       <c r="AN31" s="7"/>
-      <c r="AO31" s="14"/>
+      <c r="AO31" s="16"/>
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="20"/>
       <c r="D32" s="9"/>
       <c r="E32" s="20"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="14"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="14"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="14"/>
+      <c r="U32" s="16"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="14"/>
+      <c r="W32" s="16"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="14"/>
+      <c r="Y32" s="16"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="14"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="14"/>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="14"/>
+      <c r="AE32" s="16"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="14"/>
+      <c r="AG32" s="16"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="14"/>
+      <c r="AI32" s="16"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="14"/>
+      <c r="AK32" s="16"/>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="14"/>
+      <c r="AM32" s="16"/>
       <c r="AN32" s="7"/>
-      <c r="AO32" s="14"/>
+      <c r="AO32" s="16"/>
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="25"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="21"/>
       <c r="D33" s="11"/>
       <c r="E33" s="21"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="14"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="14"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="14"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="14"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="14"/>
+      <c r="W33" s="16"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="14"/>
+      <c r="Y33" s="16"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="14"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="14"/>
+      <c r="AC33" s="16"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="14"/>
+      <c r="AE33" s="16"/>
       <c r="AF33" s="8"/>
-      <c r="AG33" s="14"/>
+      <c r="AG33" s="16"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="14"/>
+      <c r="AI33" s="16"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="14"/>
+      <c r="AK33" s="16"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="14"/>
+      <c r="AM33" s="16"/>
       <c r="AN33" s="8"/>
-      <c r="AO33" s="14"/>
+      <c r="AO33" s="16"/>
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="19">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="23">
+      <c r="E34" s="19">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="13">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="13">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="13">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="13">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="13">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="13">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="13">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="13">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="13">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="13">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="13">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="13">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="13">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="13">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="13">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="13">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="13">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="13">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
@@ -2881,41 +2886,41 @@
       <c r="D35" s="9"/>
       <c r="E35" s="20"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="14"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="14"/>
+      <c r="O35" s="16"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="14"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="14"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="14"/>
+      <c r="W35" s="16"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="14"/>
+      <c r="Y35" s="16"/>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="14"/>
+      <c r="AA35" s="16"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="14"/>
+      <c r="AC35" s="16"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="14"/>
+      <c r="AE35" s="16"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="14"/>
+      <c r="AG35" s="16"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="14"/>
+      <c r="AI35" s="16"/>
       <c r="AJ35" s="7"/>
-      <c r="AK35" s="14"/>
+      <c r="AK35" s="16"/>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="14"/>
+      <c r="AM35" s="16"/>
       <c r="AN35" s="7"/>
-      <c r="AO35" s="14"/>
+      <c r="AO35" s="16"/>
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2924,41 +2929,41 @@
       <c r="D36" s="9"/>
       <c r="E36" s="20"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="14"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="14"/>
+      <c r="O36" s="16"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="14"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="14"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="14"/>
+      <c r="W36" s="16"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="14"/>
+      <c r="Y36" s="16"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="14"/>
+      <c r="AA36" s="16"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="14"/>
+      <c r="AC36" s="16"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="14"/>
+      <c r="AE36" s="16"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="14"/>
+      <c r="AG36" s="16"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="14"/>
+      <c r="AI36" s="16"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36" s="14"/>
+      <c r="AK36" s="16"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="14"/>
+      <c r="AM36" s="16"/>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="14"/>
+      <c r="AO36" s="16"/>
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2967,41 +2972,41 @@
       <c r="D37" s="9"/>
       <c r="E37" s="20"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="14"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="16"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="16"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="14"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="14"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="14"/>
+      <c r="W37" s="16"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="14"/>
+      <c r="Y37" s="16"/>
       <c r="Z37" s="7"/>
-      <c r="AA37" s="14"/>
+      <c r="AA37" s="16"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="14"/>
+      <c r="AC37" s="16"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="14"/>
+      <c r="AE37" s="16"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="14"/>
+      <c r="AG37" s="16"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="14"/>
+      <c r="AI37" s="16"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="14"/>
+      <c r="AK37" s="16"/>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="14"/>
+      <c r="AM37" s="16"/>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="14"/>
+      <c r="AO37" s="16"/>
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3010,189 +3015,45 @@
       <c r="D38" s="11"/>
       <c r="E38" s="21"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="15"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="15"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="15"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="15"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="15"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="15"/>
+      <c r="U38" s="18"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="15"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="15"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="15"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="15"/>
+      <c r="AC38" s="18"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="15"/>
+      <c r="AE38" s="18"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="15"/>
+      <c r="AG38" s="18"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="15"/>
+      <c r="AI38" s="18"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="15"/>
+      <c r="AK38" s="18"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="15"/>
+      <c r="AM38" s="18"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="15"/>
+      <c r="AO38" s="18"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3217,6 +3078,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0F61B-8BF9-4D73-A524-42626FFB4A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4DBC-29B6-4794-A892-B2D288F3A20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>HTML</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Daily coding: GoldbachConjecture.js</t>
+  </si>
+  <si>
+    <t>Daily coding: contiguousSum.js</t>
+  </si>
+  <si>
+    <t>FCC: JS. forEach</t>
   </si>
 </sst>
 </file>
@@ -454,19 +460,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,23 +487,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,10 +817,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,111 +873,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>34</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22">
+      <c r="F2" s="20"/>
+      <c r="G2" s="19">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22">
+      <c r="H2" s="20"/>
+      <c r="I2" s="19">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22">
+      <c r="J2" s="20"/>
+      <c r="K2" s="19">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22">
+      <c r="L2" s="20"/>
+      <c r="M2" s="19">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22">
+      <c r="N2" s="20"/>
+      <c r="O2" s="19">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="22">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22">
+      <c r="R2" s="20"/>
+      <c r="S2" s="19">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22">
+      <c r="T2" s="20"/>
+      <c r="U2" s="19">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="22">
+      <c r="V2" s="20"/>
+      <c r="W2" s="19">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="22">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="19">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="22">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="19">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="22">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="19">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="22">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="19">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="22">
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="19">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="22">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="19">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="22">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="19">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="22">
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="19">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="22">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="19">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="23"/>
+      <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1094,119 +1100,119 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="25">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="15">
+      <c r="G4" s="18">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="15">
+      <c r="I4" s="18">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="15">
+      <c r="K4" s="18">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="15">
+      <c r="M4" s="18">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="15">
+      <c r="O4" s="18">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="15">
+      <c r="Q4" s="18">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="15">
+      <c r="S4" s="18">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="15">
+      <c r="U4" s="18">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="15">
+      <c r="W4" s="18">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="15">
+      <c r="Y4" s="18">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="15">
+      <c r="AA4" s="18">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="15">
+      <c r="AC4" s="18">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="15">
+      <c r="AE4" s="18">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="15">
+      <c r="AG4" s="18">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="15">
+      <c r="AI4" s="18">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="15">
+      <c r="AK4" s="18">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="15">
+      <c r="AM4" s="18">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="15">
+      <c r="AO4" s="18">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="7"/>
       <c r="G5" s="16"/>
       <c r="H5" s="7"/>
@@ -1246,12 +1252,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="7"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7"/>
@@ -1291,10 +1297,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="7"/>
       <c r="G7" s="16"/>
       <c r="H7" s="7"/>
@@ -1334,162 +1340,162 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="18"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="17"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="18"/>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="17"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="18"/>
+      <c r="AG8" s="17"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="18"/>
+      <c r="AI8" s="17"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="18"/>
+      <c r="AK8" s="17"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="18"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="18"/>
+      <c r="AO8" s="17"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="25">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="25">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="15">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="15">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="15">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="15">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="15">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="15">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="15">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="15">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="15">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="15">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="15">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="15">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="15">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="15">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="7"/>
       <c r="G10" s="16"/>
       <c r="H10" s="7"/>
@@ -1529,10 +1535,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="7"/>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
@@ -1572,10 +1578,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="7"/>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
@@ -1615,162 +1621,162 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="18"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="18"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="18"/>
+      <c r="AA13" s="17"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="18"/>
+      <c r="AC13" s="17"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="18"/>
+      <c r="AE13" s="17"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="18"/>
+      <c r="AG13" s="17"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="18"/>
+      <c r="AI13" s="17"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="18"/>
+      <c r="AK13" s="17"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="17"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="18"/>
+      <c r="AO13" s="17"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="25">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="25">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="15">
+      <c r="I14" s="18">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="15">
+      <c r="K14" s="18">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="15">
+      <c r="M14" s="18">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="15">
+      <c r="Q14" s="18">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="15">
+      <c r="S14" s="18">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="15">
+      <c r="U14" s="18">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="15">
+      <c r="W14" s="18">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="15">
+      <c r="Y14" s="18">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15">
+      <c r="AA14" s="18">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="15">
+      <c r="AC14" s="18">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="15">
+      <c r="AE14" s="18">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="15">
+      <c r="AG14" s="18">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="15">
+      <c r="AI14" s="18">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="15">
+      <c r="AK14" s="18">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="15">
+      <c r="AM14" s="18">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="15">
+      <c r="AO14" s="18">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="7"/>
       <c r="G15" s="16"/>
       <c r="H15" s="7"/>
@@ -1810,10 +1816,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="7"/>
       <c r="G16" s="16"/>
       <c r="H16" s="7"/>
@@ -1853,10 +1859,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="7"/>
       <c r="G17" s="16"/>
       <c r="H17" s="7"/>
@@ -1896,10 +1902,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="8"/>
       <c r="G18" s="16"/>
       <c r="H18" s="8"/>
@@ -1939,119 +1945,119 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="25">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="25">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="15">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="15">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="15">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="15">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="15">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="15">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="15">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="15">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="15">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="15">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="15">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="15">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="15">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="7"/>
       <c r="G20" s="16"/>
       <c r="H20" s="7"/>
@@ -2091,10 +2097,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="7"/>
       <c r="G21" s="16"/>
       <c r="H21" s="7"/>
@@ -2134,10 +2140,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="7"/>
       <c r="G22" s="16"/>
       <c r="H22" s="7"/>
@@ -2177,160 +2183,160 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="17"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="18"/>
+      <c r="W23" s="17"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="18"/>
+      <c r="AA23" s="17"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="17"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="18"/>
+      <c r="AE23" s="17"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="18"/>
+      <c r="AG23" s="17"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="18"/>
+      <c r="AI23" s="17"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="18"/>
+      <c r="AK23" s="17"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="18"/>
+      <c r="AM23" s="17"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="18"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="25">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="25">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="15">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="15">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="15">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="15">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="15">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="15">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="15">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="15">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="15">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="15">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="15">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="15">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="15">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="15">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="7"/>
       <c r="G25" s="16"/>
       <c r="H25" s="7"/>
@@ -2370,10 +2376,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="7"/>
       <c r="G26" s="16"/>
       <c r="H26" s="7"/>
@@ -2413,10 +2419,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="7"/>
       <c r="G27" s="16"/>
       <c r="H27" s="7"/>
@@ -2456,158 +2462,162 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="18"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="18"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="17"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="18"/>
+      <c r="S28" s="17"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="18"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="18"/>
+      <c r="W28" s="17"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="18"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="18"/>
+      <c r="AA28" s="17"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="18"/>
+      <c r="AC28" s="17"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="18"/>
+      <c r="AE28" s="17"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="18"/>
+      <c r="AG28" s="17"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="18"/>
+      <c r="AI28" s="17"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="18"/>
+      <c r="AK28" s="17"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="18"/>
+      <c r="AM28" s="17"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="18"/>
+      <c r="AO28" s="17"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="25">
         <f>C24+1</f>
         <v>44065</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="19">
+      <c r="D29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="25">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="15">
+      <c r="G29" s="18">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="15">
+      <c r="I29" s="18">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="15">
+      <c r="K29" s="18">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="15">
+      <c r="M29" s="18">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="15">
+      <c r="O29" s="18">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="15">
+      <c r="Q29" s="18">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="15">
+      <c r="S29" s="18">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="15">
+      <c r="U29" s="18">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="15">
+      <c r="W29" s="18">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="15">
+      <c r="Y29" s="18">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="15">
+      <c r="AA29" s="18">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="15">
+      <c r="AC29" s="18">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="15">
+      <c r="AE29" s="18">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="15">
+      <c r="AG29" s="18">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="15">
+      <c r="AI29" s="18">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="15">
+      <c r="AK29" s="18">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="15">
+      <c r="AM29" s="18">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="15">
+      <c r="AO29" s="18">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="7"/>
       <c r="G30" s="16"/>
       <c r="H30" s="7"/>
@@ -2647,10 +2657,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="7"/>
       <c r="G31" s="16"/>
       <c r="H31" s="7"/>
@@ -2690,10 +2700,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="7"/>
       <c r="G32" s="16"/>
       <c r="H32" s="7"/>
@@ -2733,10 +2743,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="8"/>
       <c r="G33" s="16"/>
       <c r="H33" s="8"/>
@@ -2776,115 +2786,115 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="25">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="19">
+      <c r="E34" s="25">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="15">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="15">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="15">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="15">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="15">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="15">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="15">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="15">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="15">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="15">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="15">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="15">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="15">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="15">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="15">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="7"/>
       <c r="G35" s="16"/>
       <c r="H35" s="7"/>
@@ -2924,10 +2934,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="7"/>
       <c r="G36" s="16"/>
       <c r="H36" s="7"/>
@@ -2967,10 +2977,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="7"/>
       <c r="G37" s="16"/>
       <c r="H37" s="7"/>
@@ -3010,50 +3020,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="18"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="18"/>
+      <c r="Q38" s="17"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="18"/>
+      <c r="S38" s="17"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="18"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="18"/>
+      <c r="W38" s="17"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="18"/>
+      <c r="Y38" s="17"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="18"/>
+      <c r="AA38" s="17"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="18"/>
+      <c r="AC38" s="17"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="18"/>
+      <c r="AE38" s="17"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="18"/>
+      <c r="AG38" s="17"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="18"/>
+      <c r="AI38" s="17"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="18"/>
+      <c r="AK38" s="17"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="18"/>
+      <c r="AM38" s="17"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="18"/>
+      <c r="AO38" s="17"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3078,154 +3232,11 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
     <hyperlink ref="D20" r:id="rId2" xr:uid="{8E38AB8E-A5B6-4D09-8D84-186226DBF6E5}"/>
+    <hyperlink ref="D30" r:id="rId3" xr:uid="{80FBC43F-8618-4725-8557-4348F299901B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4DBC-29B6-4794-A892-B2D288F3A20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41128368-3A04-4B33-91B6-D94981B20F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>HTML</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>FCC: JS. forEach</t>
+  </si>
+  <si>
+    <t>Daily coding: shortestSubstring.js - WIP</t>
+  </si>
+  <si>
+    <t>FCC: CS50</t>
   </si>
 </sst>
 </file>
@@ -817,10 +823,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,7 +2799,9 @@
         <f>C29+1</f>
         <v>44066</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="25">
         <f>E29+1</f>
         <v>44073</v>
@@ -2893,7 +2901,9 @@
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="22"/>
       <c r="F35" s="7"/>
       <c r="G35" s="16"/>
@@ -3237,6 +3247,7 @@
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
     <hyperlink ref="D20" r:id="rId2" xr:uid="{8E38AB8E-A5B6-4D09-8D84-186226DBF6E5}"/>
     <hyperlink ref="D30" r:id="rId3" xr:uid="{80FBC43F-8618-4725-8557-4348F299901B}"/>
+    <hyperlink ref="D35" r:id="rId4" xr:uid="{772316F7-0572-4FE1-A3D3-B411A1EC063E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41128368-3A04-4B33-91B6-D94981B20F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC3C6E-1928-4CF4-BF07-75DDAF7FEB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>HTML</t>
   </si>
@@ -218,6 +218,36 @@
   </si>
   <si>
     <t>FCC: CS50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Modern JS Bootcamp 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Section 8. Writing reusable code with functions (1.3 h);
+functions.js</t>
+    </r>
+  </si>
+  <si>
+    <t>Registered on CS50X, CS50W and CS50T</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 0 (1 h)</t>
   </si>
 </sst>
 </file>
@@ -466,16 +496,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,26 +523,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,10 +853,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34:E38"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,111 +909,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="22">
         <v>34</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19">
+      <c r="J2" s="23"/>
+      <c r="K2" s="22">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19">
+      <c r="L2" s="23"/>
+      <c r="M2" s="22">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19">
+      <c r="N2" s="23"/>
+      <c r="O2" s="22">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="22">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19">
+      <c r="R2" s="23"/>
+      <c r="S2" s="22">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="19">
+      <c r="T2" s="23"/>
+      <c r="U2" s="22">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="19">
+      <c r="V2" s="23"/>
+      <c r="W2" s="22">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="19">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="22">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="19">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="22">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="19">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="22">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="19">
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="22">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="19">
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="22">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="19">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="22">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="19">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="22">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="19">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="22">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="19">
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="22">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="20"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1106,120 +1136,124 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <f>C34+1</f>
         <v>44067</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="18">
+      <c r="F4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="15">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="18">
+      <c r="O4" s="15">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="18">
+      <c r="Q4" s="15">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="18">
+      <c r="S4" s="15">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="18">
+      <c r="U4" s="15">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="18">
+      <c r="W4" s="15">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="18">
+      <c r="Y4" s="15">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="18">
+      <c r="AA4" s="15">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="15">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="18">
+      <c r="AE4" s="15">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="18">
+      <c r="AG4" s="15">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="18">
+      <c r="AI4" s="15">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="18">
+      <c r="AK4" s="15">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="18">
+      <c r="AM4" s="15">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="18">
+      <c r="AO4" s="15">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1258,13 +1292,13 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7"/>
       <c r="I6" s="16"/>
@@ -1303,11 +1337,11 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="16"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -1346,163 +1380,165 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="17"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="17"/>
+      <c r="AC8" s="18"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="18"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="17"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="17"/>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="17"/>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="17"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="19">
         <f>E4+1</f>
         <v>44068</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="15">
+      <c r="F9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="15">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="15">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="15">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="15">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="15">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="15">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="15">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="15">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="15">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="15">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="15">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="15">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="15">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="15">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="15">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="16"/>
       <c r="H10" s="7"/>
       <c r="I10" s="16"/>
@@ -1541,11 +1577,11 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
       <c r="I11" s="16"/>
@@ -1584,11 +1620,11 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -1627,163 +1663,163 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="17"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="17"/>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="17"/>
+      <c r="AC13" s="18"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="17"/>
+      <c r="AE13" s="18"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="17"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="17"/>
+      <c r="AI13" s="18"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="17"/>
+      <c r="AK13" s="18"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="17"/>
+      <c r="AM13" s="18"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="17"/>
+      <c r="AO13" s="18"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <f>E9+1</f>
         <v>44069</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="18">
+      <c r="F14" s="10"/>
+      <c r="G14" s="15">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="18">
+      <c r="M14" s="15">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="18">
+      <c r="O14" s="15">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="18">
+      <c r="Q14" s="15">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="18">
+      <c r="S14" s="15">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="18">
+      <c r="U14" s="15">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="18">
+      <c r="W14" s="15">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="18">
+      <c r="Y14" s="15">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="18">
+      <c r="AA14" s="15">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="15">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="18">
+      <c r="AE14" s="15">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="18">
+      <c r="AG14" s="15">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="18">
+      <c r="AI14" s="15">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="18">
+      <c r="AK14" s="15">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="18">
+      <c r="AM14" s="15">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="18">
+      <c r="AO14" s="15">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="16"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -1822,11 +1858,11 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="16"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -1865,11 +1901,11 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="16"/>
       <c r="H17" s="7"/>
       <c r="I17" s="16"/>
@@ -1908,11 +1944,11 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="16"/>
       <c r="H18" s="8"/>
       <c r="I18" s="16"/>
@@ -1951,120 +1987,120 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="19">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="19">
         <f>E14+1</f>
         <v>44070</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="15">
+      <c r="F19" s="10"/>
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="15">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="15">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="15">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="15">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="15">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="15">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="15">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="15">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="15">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="15">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="15">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="15">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="15">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="15">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="15">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="15">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="16"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>
@@ -2103,11 +2139,11 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="16"/>
       <c r="H21" s="7"/>
       <c r="I21" s="16"/>
@@ -2146,11 +2182,11 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="16"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -2189,161 +2225,161 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="17"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="17"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="17"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="17"/>
+      <c r="W23" s="18"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="17"/>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="17"/>
+      <c r="AA23" s="18"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="17"/>
+      <c r="AC23" s="18"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="17"/>
+      <c r="AE23" s="18"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="17"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="17"/>
+      <c r="AI23" s="18"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="17"/>
+      <c r="AK23" s="18"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="17"/>
+      <c r="AM23" s="18"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="17"/>
+      <c r="AO23" s="18"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="19">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="19">
         <f>E19+1</f>
         <v>44071</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="15">
+      <c r="F24" s="10"/>
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="15">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="15">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="15">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="15">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="15">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="15">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="15">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="15">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="15">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="15">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="15">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="15">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="15">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="15">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="15">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="15">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="16"/>
       <c r="H25" s="7"/>
       <c r="I25" s="16"/>
@@ -2382,11 +2418,11 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="16"/>
       <c r="H26" s="7"/>
       <c r="I26" s="16"/>
@@ -2425,11 +2461,11 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="16"/>
       <c r="H27" s="7"/>
       <c r="I27" s="16"/>
@@ -2468,163 +2504,163 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="17"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="17"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="17"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="17"/>
+      <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="17"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="17"/>
+      <c r="AC28" s="18"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="17"/>
+      <c r="AE28" s="18"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="17"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="17"/>
+      <c r="AI28" s="18"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="17"/>
+      <c r="AK28" s="18"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="17"/>
+      <c r="AM28" s="18"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="17"/>
+      <c r="AO28" s="18"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="19">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="19">
         <f>E24+1</f>
         <v>44072</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="18">
+      <c r="F29" s="10"/>
+      <c r="G29" s="15">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="18">
+      <c r="I29" s="15">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="18">
+      <c r="K29" s="15">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="18">
+      <c r="M29" s="15">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="18">
+      <c r="O29" s="15">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="18">
+      <c r="Q29" s="15">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="18">
+      <c r="S29" s="15">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="18">
+      <c r="U29" s="15">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="18">
+      <c r="W29" s="15">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="18">
+      <c r="Y29" s="15">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="18">
+      <c r="AA29" s="15">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="18">
+      <c r="AC29" s="15">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="18">
+      <c r="AE29" s="15">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="18">
+      <c r="AG29" s="15">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="18">
+      <c r="AI29" s="15">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="18">
+      <c r="AK29" s="15">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="18">
+      <c r="AM29" s="15">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="18">
+      <c r="AO29" s="15">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="16"/>
       <c r="H30" s="7"/>
       <c r="I30" s="16"/>
@@ -2663,11 +2699,11 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="16"/>
       <c r="H31" s="7"/>
       <c r="I31" s="16"/>
@@ -2706,11 +2742,11 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="16"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -2749,11 +2785,11 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="27"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="16"/>
       <c r="H33" s="8"/>
       <c r="I33" s="16"/>
@@ -2792,120 +2828,120 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="19">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="19">
         <f>E29+1</f>
         <v>44073</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="15">
+      <c r="F34" s="10"/>
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="15">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="15">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="15">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="15">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="15">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="15">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="15">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="15">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="15">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="15">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="15">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="15">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="15">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="15">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="15">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="15">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="15">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="16"/>
       <c r="H35" s="7"/>
       <c r="I35" s="16"/>
@@ -2944,11 +2980,11 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="16"/>
       <c r="H36" s="7"/>
       <c r="I36" s="16"/>
@@ -2987,11 +3023,11 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="16"/>
       <c r="H37" s="7"/>
       <c r="I37" s="16"/>
@@ -3030,194 +3066,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="17"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="17"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="17"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="17"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="17"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="17"/>
+      <c r="U38" s="18"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="17"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="17"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="17"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="17"/>
+      <c r="AC38" s="18"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="17"/>
+      <c r="AE38" s="18"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="17"/>
+      <c r="AG38" s="18"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="17"/>
+      <c r="AI38" s="18"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="17"/>
+      <c r="AK38" s="18"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="17"/>
+      <c r="AM38" s="18"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="17"/>
+      <c r="AO38" s="18"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3242,6 +3134,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3250,6 +3286,7 @@
     <hyperlink ref="D35" r:id="rId4" xr:uid="{772316F7-0572-4FE1-A3D3-B411A1EC063E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDC3C6E-1928-4CF4-BF07-75DDAF7FEB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47CA06-9D25-4BBC-9A6F-F281A8845FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>HTML</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>CS50X: lecture 0 (1 h)</t>
+  </si>
+  <si>
+    <t>JS and CSS tests</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 1 (0.5 h) intro to C</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 1 (1.5 h) intro to C</t>
+  </si>
+  <si>
+    <t>LinkedIn Learning: DNS, IP and hosting (1 h)</t>
   </si>
 </sst>
 </file>
@@ -853,10 +865,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1550,9 @@
         <v>48</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="7"/>
       <c r="I10" s="16"/>
@@ -1720,7 +1734,9 @@
         <f>E9+1</f>
         <v>44069</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G14" s="15">
         <f>G9+1</f>
         <v>44076</v>
@@ -2001,7 +2017,9 @@
         <f>E14+1</f>
         <v>44070</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
@@ -2100,7 +2118,9 @@
         <v>53</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="7"/>
       <c r="I20" s="16"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47CA06-9D25-4BBC-9A6F-F281A8845FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60DA2E-2CA2-44FF-97A5-2855695BEA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>HTML</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>LinkedIn Learning: DNS, IP and hosting (1 h)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 1 (1.5 h) intro to C - data types, operators, conditionals, loops, command line</t>
+  </si>
+  <si>
+    <t>Cheat sheets</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,7 +2308,9 @@
         <f>E19+1</f>
         <v>44071</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
@@ -2399,7 +2407,9 @@
       <c r="C25" s="20"/>
       <c r="D25" s="9"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="7"/>
       <c r="I25" s="16"/>
@@ -3304,9 +3314,10 @@
     <hyperlink ref="D20" r:id="rId2" xr:uid="{8E38AB8E-A5B6-4D09-8D84-186226DBF6E5}"/>
     <hyperlink ref="D30" r:id="rId3" xr:uid="{80FBC43F-8618-4725-8557-4348F299901B}"/>
     <hyperlink ref="D35" r:id="rId4" xr:uid="{772316F7-0572-4FE1-A3D3-B411A1EC063E}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{CBD4E555-80A7-4699-A222-BD5E6EE95EDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60DA2E-2CA2-44FF-97A5-2855695BEA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF84C0-9D06-4316-A7B9-1E09B43FB9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>HTML</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Cheat sheets</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 1 intro to C - pset1 (mario)</t>
+  </si>
+  <si>
+    <t>Interactive HTML/CSS/JS cheat sheets</t>
   </si>
 </sst>
 </file>
@@ -514,19 +520,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,23 +547,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,10 +877,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,111 +933,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>34</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22">
+      <c r="F2" s="20"/>
+      <c r="G2" s="19">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22">
+      <c r="H2" s="20"/>
+      <c r="I2" s="19">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22">
+      <c r="J2" s="20"/>
+      <c r="K2" s="19">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22">
+      <c r="L2" s="20"/>
+      <c r="M2" s="19">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22">
+      <c r="N2" s="20"/>
+      <c r="O2" s="19">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="22">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="19">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22">
+      <c r="R2" s="20"/>
+      <c r="S2" s="19">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22">
+      <c r="T2" s="20"/>
+      <c r="U2" s="19">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="22">
+      <c r="V2" s="20"/>
+      <c r="W2" s="19">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="22">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="19">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="22">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="19">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="22">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="19">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="22">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="19">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="22">
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="19">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="22">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="19">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="22">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="19">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="22">
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="19">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="22">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="19">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="23"/>
+      <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1154,121 +1160,121 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="25">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="18">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="15">
+      <c r="I4" s="18">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="15">
+      <c r="K4" s="18">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="15">
+      <c r="M4" s="18">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="15">
+      <c r="O4" s="18">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="15">
+      <c r="Q4" s="18">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="15">
+      <c r="S4" s="18">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="15">
+      <c r="U4" s="18">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="15">
+      <c r="W4" s="18">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="15">
+      <c r="Y4" s="18">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="15">
+      <c r="AA4" s="18">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="15">
+      <c r="AC4" s="18">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="15">
+      <c r="AE4" s="18">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="15">
+      <c r="AG4" s="18">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="15">
+      <c r="AI4" s="18">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="15">
+      <c r="AK4" s="18">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="15">
+      <c r="AM4" s="18">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="15">
+      <c r="AO4" s="18">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1310,12 +1316,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7"/>
@@ -1355,10 +1361,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16"/>
       <c r="H7" s="7"/>
@@ -1398,164 +1404,164 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="18"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="17"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="18"/>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="17"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="18"/>
+      <c r="AG8" s="17"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="18"/>
+      <c r="AI8" s="17"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="18"/>
+      <c r="AK8" s="17"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="18"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="18"/>
+      <c r="AO8" s="17"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="25">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="25">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="15">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="15">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="15">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="15">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="15">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="15">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="15">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="15">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="15">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="15">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="15">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="15">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="15">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="15">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1597,10 +1603,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
@@ -1640,10 +1646,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
@@ -1683,164 +1689,164 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="18"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="18"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="18"/>
+      <c r="AA13" s="17"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="18"/>
+      <c r="AC13" s="17"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="18"/>
+      <c r="AE13" s="17"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="18"/>
+      <c r="AG13" s="17"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="18"/>
+      <c r="AI13" s="17"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="18"/>
+      <c r="AK13" s="17"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="17"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="18"/>
+      <c r="AO13" s="17"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="25">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="25">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="15">
+      <c r="I14" s="18">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="15">
+      <c r="K14" s="18">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="15">
+      <c r="M14" s="18">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="15">
+      <c r="Q14" s="18">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="15">
+      <c r="S14" s="18">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="15">
+      <c r="U14" s="18">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="15">
+      <c r="W14" s="18">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="15">
+      <c r="Y14" s="18">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15">
+      <c r="AA14" s="18">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="15">
+      <c r="AC14" s="18">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="15">
+      <c r="AE14" s="18">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="15">
+      <c r="AG14" s="18">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="15">
+      <c r="AI14" s="18">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="15">
+      <c r="AK14" s="18">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="15">
+      <c r="AM14" s="18">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="15">
+      <c r="AO14" s="18">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="16"/>
       <c r="H15" s="7"/>
@@ -1880,10 +1886,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16"/>
       <c r="H16" s="7"/>
@@ -1923,10 +1929,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16"/>
       <c r="H17" s="7"/>
@@ -1966,10 +1972,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="16"/>
       <c r="H18" s="8"/>
@@ -2009,121 +2015,121 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="25">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="25">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="15">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="15">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="15">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="15">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="15">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="15">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="15">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="15">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="15">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="15">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="15">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="15">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="15">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2165,10 +2171,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16"/>
       <c r="H21" s="7"/>
@@ -2208,10 +2214,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16"/>
       <c r="H22" s="7"/>
@@ -2251,162 +2257,162 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="17"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="18"/>
+      <c r="W23" s="17"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="18"/>
+      <c r="AA23" s="17"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="17"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="18"/>
+      <c r="AE23" s="17"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="18"/>
+      <c r="AG23" s="17"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="18"/>
+      <c r="AI23" s="17"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="18"/>
+      <c r="AK23" s="17"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="18"/>
+      <c r="AM23" s="17"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="18"/>
+      <c r="AO23" s="17"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="25">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="25">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="15">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="15">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="15">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="15">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="15">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="15">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="15">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="15">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="15">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="15">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="15">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="15">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="15">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="15">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2448,10 +2454,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16"/>
       <c r="H26" s="7"/>
@@ -2491,10 +2497,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16"/>
       <c r="H27" s="7"/>
@@ -2534,163 +2540,167 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="18"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="18"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="17"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="18"/>
+      <c r="S28" s="17"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="18"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="18"/>
+      <c r="W28" s="17"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="18"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="18"/>
+      <c r="AA28" s="17"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="18"/>
+      <c r="AC28" s="17"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="18"/>
+      <c r="AE28" s="17"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="18"/>
+      <c r="AG28" s="17"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="18"/>
+      <c r="AI28" s="17"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="18"/>
+      <c r="AK28" s="17"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="18"/>
+      <c r="AM28" s="17"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="18"/>
+      <c r="AO28" s="17"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="25">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="25">
         <f>E24+1</f>
         <v>44072</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="15">
+      <c r="F29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="18">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="15">
+      <c r="I29" s="18">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="15">
+      <c r="K29" s="18">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="15">
+      <c r="M29" s="18">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="15">
+      <c r="O29" s="18">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="15">
+      <c r="Q29" s="18">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="15">
+      <c r="S29" s="18">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="15">
+      <c r="U29" s="18">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="15">
+      <c r="W29" s="18">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="15">
+      <c r="Y29" s="18">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="15">
+      <c r="AA29" s="18">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="15">
+      <c r="AC29" s="18">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="15">
+      <c r="AE29" s="18">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="15">
+      <c r="AG29" s="18">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="15">
+      <c r="AI29" s="18">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="15">
+      <c r="AK29" s="18">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="15">
+      <c r="AM29" s="18">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="15">
+      <c r="AO29" s="18">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="16"/>
       <c r="H30" s="7"/>
       <c r="I30" s="16"/>
@@ -2729,10 +2739,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16"/>
       <c r="H31" s="7"/>
@@ -2772,10 +2782,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16"/>
       <c r="H32" s="7"/>
@@ -2815,10 +2825,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="16"/>
       <c r="H33" s="8"/>
@@ -2858,119 +2868,119 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="25">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="25">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="15">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="15">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="15">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="15">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="15">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="15">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="15">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="15">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="15">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="15">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="15">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="15">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="15">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="15">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="15">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16"/>
       <c r="H35" s="7"/>
@@ -3010,10 +3020,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16"/>
       <c r="H36" s="7"/>
@@ -3053,10 +3063,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16"/>
       <c r="H37" s="7"/>
@@ -3096,50 +3106,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="18"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="18"/>
+      <c r="Q38" s="17"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="18"/>
+      <c r="S38" s="17"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="18"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="18"/>
+      <c r="W38" s="17"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="18"/>
+      <c r="Y38" s="17"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="18"/>
+      <c r="AA38" s="17"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="18"/>
+      <c r="AC38" s="17"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="18"/>
+      <c r="AE38" s="17"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="18"/>
+      <c r="AG38" s="17"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="18"/>
+      <c r="AI38" s="17"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="18"/>
+      <c r="AK38" s="17"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="18"/>
+      <c r="AM38" s="17"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="18"/>
+      <c r="AO38" s="17"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3164,150 +3318,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3315,9 +3325,11 @@
     <hyperlink ref="D30" r:id="rId3" xr:uid="{80FBC43F-8618-4725-8557-4348F299901B}"/>
     <hyperlink ref="D35" r:id="rId4" xr:uid="{772316F7-0572-4FE1-A3D3-B411A1EC063E}"/>
     <hyperlink ref="F25" r:id="rId5" xr:uid="{CBD4E555-80A7-4699-A222-BD5E6EE95EDF}"/>
+    <hyperlink ref="F29" r:id="rId6" xr:uid="{ECEC5CAF-630C-4AC4-89D4-30A1D1561593}"/>
+    <hyperlink ref="F30" r:id="rId7" xr:uid="{3083A5EA-62E7-4232-A069-5FCCF02ADFDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF84C0-9D06-4316-A7B9-1E09B43FB9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F761D-8989-4087-9508-0D759F3E820B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>HTML</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>Interactive HTML/CSS/JS cheat sheets</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 1 intro to C - pset1 (credit)</t>
+  </si>
+  <si>
+    <t>CS50 C library</t>
+  </si>
+  <si>
+    <t>CS50T: lecture 0. Hardware (1 h)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,16 +529,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,26 +556,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,10 +889,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,111 +945,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="22">
         <v>34</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19">
+      <c r="F2" s="23"/>
+      <c r="G2" s="22">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19">
+      <c r="J2" s="23"/>
+      <c r="K2" s="22">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19">
+      <c r="L2" s="23"/>
+      <c r="M2" s="22">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19">
+      <c r="N2" s="23"/>
+      <c r="O2" s="22">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="22">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19">
+      <c r="R2" s="23"/>
+      <c r="S2" s="22">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="19">
+      <c r="T2" s="23"/>
+      <c r="U2" s="22">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="19">
+      <c r="V2" s="23"/>
+      <c r="W2" s="22">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="19">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="22">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="19">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="22">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="19">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="22">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="19">
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="22">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="19">
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="22">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="19">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="22">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="19">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="22">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="19">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="22">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="19">
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="22">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="20"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1160,126 +1172,130 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <f>E34+1</f>
         <v>44074</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="18">
+      <c r="H4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="15">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="18">
+      <c r="O4" s="15">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="18">
+      <c r="Q4" s="15">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="18">
+      <c r="S4" s="15">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="18">
+      <c r="U4" s="15">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="18">
+      <c r="W4" s="15">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="18">
+      <c r="Y4" s="15">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="18">
+      <c r="AA4" s="15">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="15">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="18">
+      <c r="AE4" s="15">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="18">
+      <c r="AG4" s="15">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="18">
+      <c r="AI4" s="15">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="18">
+      <c r="AK4" s="15">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="18">
+      <c r="AM4" s="15">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="18">
+      <c r="AO4" s="15">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="7"/>
       <c r="K5" s="16"/>
@@ -1316,12 +1332,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7"/>
@@ -1361,10 +1377,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16"/>
       <c r="H7" s="7"/>
@@ -1404,164 +1420,164 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="17"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="17"/>
+      <c r="AC8" s="18"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="18"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="17"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="17"/>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="17"/>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="17"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="19">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="15">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="15">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="15">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="15">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="15">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="15">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="15">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="15">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="15">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="15">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="15">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="15">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="15">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="15">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="15">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="15">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1603,10 +1619,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="9"/>
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
@@ -1646,10 +1662,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16"/>
       <c r="H12" s="7"/>
@@ -1689,164 +1705,164 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="17"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="17"/>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="17"/>
+      <c r="AC13" s="18"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="17"/>
+      <c r="AE13" s="18"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="17"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="17"/>
+      <c r="AI13" s="18"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="17"/>
+      <c r="AK13" s="18"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="17"/>
+      <c r="AM13" s="18"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="17"/>
+      <c r="AO13" s="18"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="18">
+      <c r="M14" s="15">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="18">
+      <c r="O14" s="15">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="18">
+      <c r="Q14" s="15">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="18">
+      <c r="S14" s="15">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="18">
+      <c r="U14" s="15">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="18">
+      <c r="W14" s="15">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="18">
+      <c r="Y14" s="15">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="18">
+      <c r="AA14" s="15">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="15">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="18">
+      <c r="AE14" s="15">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="18">
+      <c r="AG14" s="15">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="18">
+      <c r="AI14" s="15">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="18">
+      <c r="AK14" s="15">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="18">
+      <c r="AM14" s="15">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="18">
+      <c r="AO14" s="15">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="9"/>
       <c r="G15" s="16"/>
       <c r="H15" s="7"/>
@@ -1886,10 +1902,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16"/>
       <c r="H16" s="7"/>
@@ -1929,10 +1945,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16"/>
       <c r="H17" s="7"/>
@@ -1972,10 +1988,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="11"/>
       <c r="G18" s="16"/>
       <c r="H18" s="8"/>
@@ -2015,121 +2031,121 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="19">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="19">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="15">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="15">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="15">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="15">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="15">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="15">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="15">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="15">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="15">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="15">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="15">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="15">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="15">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="15">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="15">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="15">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2171,10 +2187,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16"/>
       <c r="H21" s="7"/>
@@ -2214,10 +2230,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16"/>
       <c r="H22" s="7"/>
@@ -2257,162 +2273,162 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="17"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="17"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="17"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="17"/>
+      <c r="W23" s="18"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="17"/>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="17"/>
+      <c r="AA23" s="18"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="17"/>
+      <c r="AC23" s="18"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="17"/>
+      <c r="AE23" s="18"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="17"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="17"/>
+      <c r="AI23" s="18"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="17"/>
+      <c r="AK23" s="18"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="17"/>
+      <c r="AM23" s="18"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="17"/>
+      <c r="AO23" s="18"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="19">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="19">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="15">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="15">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="15">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="15">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="15">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="15">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="15">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="15">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="15">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="15">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="15">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="15">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="15">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="15">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="15">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="15">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2454,10 +2470,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16"/>
       <c r="H26" s="7"/>
@@ -2497,10 +2513,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16"/>
       <c r="H27" s="7"/>
@@ -2540,164 +2556,164 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="17"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="17"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="17"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="17"/>
+      <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="17"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="17"/>
+      <c r="AC28" s="18"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="17"/>
+      <c r="AE28" s="18"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="17"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="17"/>
+      <c r="AI28" s="18"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="17"/>
+      <c r="AK28" s="18"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="17"/>
+      <c r="AM28" s="18"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="17"/>
+      <c r="AO28" s="18"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="19">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="19">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="15">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="18">
+      <c r="I29" s="15">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="18">
+      <c r="K29" s="15">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="18">
+      <c r="M29" s="15">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="18">
+      <c r="O29" s="15">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="18">
+      <c r="Q29" s="15">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="18">
+      <c r="S29" s="15">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="18">
+      <c r="U29" s="15">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="18">
+      <c r="W29" s="15">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="18">
+      <c r="Y29" s="15">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="18">
+      <c r="AA29" s="15">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="18">
+      <c r="AC29" s="15">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="18">
+      <c r="AE29" s="15">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="18">
+      <c r="AG29" s="15">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="18">
+      <c r="AI29" s="15">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="18">
+      <c r="AK29" s="15">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="18">
+      <c r="AM29" s="15">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="18">
+      <c r="AO29" s="15">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2739,10 +2755,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16"/>
       <c r="H31" s="7"/>
@@ -2782,10 +2798,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16"/>
       <c r="H32" s="7"/>
@@ -2825,10 +2841,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="27"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="11"/>
       <c r="G33" s="16"/>
       <c r="H33" s="8"/>
@@ -2868,119 +2884,121 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="19">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="19">
         <f>E29+1</f>
         <v>44073</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="15">
+      <c r="F34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="15">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="15">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="15">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="15">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="15">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="15">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="15">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="15">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="15">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="15">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="15">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="15">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="15">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="15">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="15">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="15">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="15">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16"/>
       <c r="H35" s="7"/>
@@ -3020,10 +3038,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16"/>
       <c r="H36" s="7"/>
@@ -3063,10 +3081,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16"/>
       <c r="H37" s="7"/>
@@ -3106,194 +3124,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="17"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="17"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="17"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="17"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="17"/>
+      <c r="U38" s="18"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="17"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="17"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="17"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="17"/>
+      <c r="AC38" s="18"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="17"/>
+      <c r="AE38" s="18"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="17"/>
+      <c r="AG38" s="18"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="17"/>
+      <c r="AI38" s="18"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="17"/>
+      <c r="AK38" s="18"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="17"/>
+      <c r="AM38" s="18"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="17"/>
+      <c r="AO38" s="18"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3318,6 +3192,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3327,9 +3345,11 @@
     <hyperlink ref="F25" r:id="rId5" xr:uid="{CBD4E555-80A7-4699-A222-BD5E6EE95EDF}"/>
     <hyperlink ref="F29" r:id="rId6" xr:uid="{ECEC5CAF-630C-4AC4-89D4-30A1D1561593}"/>
     <hyperlink ref="F30" r:id="rId7" xr:uid="{3083A5EA-62E7-4232-A069-5FCCF02ADFDB}"/>
+    <hyperlink ref="F34" r:id="rId8" location=":~:text=submit50%20cs50/problems/2020/x/credit" xr:uid="{B92DFA2E-2928-470E-9282-849BA68DBD4E}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{557ABC9D-5016-4931-BEA8-375439844343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F761D-8989-4087-9508-0D759F3E820B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6AF6D-2113-412A-B918-31DEF24327C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>HTML</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>CS50T: lecture 0. Hardware (1 h)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 2 (2 h)</t>
   </si>
 </sst>
 </file>
@@ -529,19 +532,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,26 +562,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,7 +895,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,105 +951,105 @@
       <c r="B2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>34</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22">
+      <c r="D2" s="21"/>
+      <c r="E2" s="20">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22">
+      <c r="F2" s="21"/>
+      <c r="G2" s="20">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22">
+      <c r="H2" s="21"/>
+      <c r="I2" s="20">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22">
+      <c r="J2" s="21"/>
+      <c r="K2" s="20">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22">
+      <c r="N2" s="21"/>
+      <c r="O2" s="20">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="22">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22">
+      <c r="R2" s="21"/>
+      <c r="S2" s="20">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22">
+      <c r="T2" s="21"/>
+      <c r="U2" s="20">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="22">
+      <c r="V2" s="21"/>
+      <c r="W2" s="20">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="22">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="20">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="22">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="20">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="22">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="20">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="22">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="20">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="22">
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="20">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="22">
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="20">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="22">
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="20">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="22">
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="20">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="22">
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="20">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="23"/>
+      <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
@@ -1172,258 +1175,258 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="26">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="19">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="19">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="15">
+      <c r="K4" s="19">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="15">
+      <c r="M4" s="19">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="15">
+      <c r="O4" s="19">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="15">
+      <c r="Q4" s="19">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="15">
+      <c r="S4" s="19">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="15">
+      <c r="U4" s="19">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="15">
+      <c r="W4" s="19">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="15">
+      <c r="Y4" s="19">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="15">
+      <c r="AA4" s="19">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="15">
+      <c r="AC4" s="19">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="15">
+      <c r="AE4" s="19">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="15">
+      <c r="AG4" s="19">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="15">
+      <c r="AI4" s="19">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="15">
+      <c r="AK4" s="19">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="15">
+      <c r="AM4" s="19">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="15">
+      <c r="AO4" s="19">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="16"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="16"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="16"/>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="16"/>
+      <c r="AA5" s="17"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="16"/>
+      <c r="AC5" s="17"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="16"/>
+      <c r="AE5" s="17"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="16"/>
+      <c r="AG5" s="17"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="16"/>
+      <c r="AI5" s="17"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="16"/>
+      <c r="AK5" s="17"/>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="16"/>
+      <c r="AM5" s="17"/>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="16"/>
+      <c r="AO5" s="17"/>
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="16"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="16"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="16"/>
+      <c r="AA6" s="17"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="16"/>
+      <c r="AE6" s="17"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="16"/>
+      <c r="AG6" s="17"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="16"/>
+      <c r="AI6" s="17"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="16"/>
+      <c r="AK6" s="17"/>
       <c r="AL6" s="7"/>
-      <c r="AM6" s="16"/>
+      <c r="AM6" s="17"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="16"/>
+      <c r="AO6" s="17"/>
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="16"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="16"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="16"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="16"/>
+      <c r="AE7" s="17"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="16"/>
+      <c r="AG7" s="17"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="16"/>
+      <c r="AI7" s="17"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="16"/>
+      <c r="AK7" s="17"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="16"/>
+      <c r="AM7" s="17"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="16"/>
+      <c r="AO7" s="17"/>
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="11"/>
       <c r="G8" s="18"/>
       <c r="H8" s="8"/>
@@ -1463,252 +1466,254 @@
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="26">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="26">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f>G4+1</f>
         <v>44075</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="17">
+      <c r="H9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="16">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="16">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="16">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="16">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="16">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="16">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="16">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="16">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="16">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="16">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="16"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="16"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="16"/>
+      <c r="W10" s="17"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="16"/>
+      <c r="AA10" s="17"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="16"/>
+      <c r="AC10" s="17"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="16"/>
+      <c r="AE10" s="17"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="16"/>
+      <c r="AG10" s="17"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="16"/>
+      <c r="AI10" s="17"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="16"/>
+      <c r="AK10" s="17"/>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="16"/>
+      <c r="AM10" s="17"/>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="16"/>
+      <c r="AO10" s="17"/>
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="16"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="16"/>
+      <c r="W11" s="17"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="16"/>
+      <c r="AA11" s="17"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="16"/>
+      <c r="AC11" s="17"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="16"/>
+      <c r="AE11" s="17"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="16"/>
+      <c r="AG11" s="17"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="16"/>
+      <c r="AI11" s="17"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="16"/>
+      <c r="AK11" s="17"/>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="16"/>
+      <c r="AM11" s="17"/>
       <c r="AN11" s="7"/>
-      <c r="AO11" s="16"/>
+      <c r="AO11" s="17"/>
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="17"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="17"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="16"/>
+      <c r="W12" s="17"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="16"/>
+      <c r="AA12" s="17"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="16"/>
+      <c r="AC12" s="17"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="16"/>
+      <c r="AE12" s="17"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="16"/>
+      <c r="AG12" s="17"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="16"/>
+      <c r="AI12" s="17"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="16"/>
+      <c r="AK12" s="17"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="16"/>
+      <c r="AM12" s="17"/>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="16"/>
+      <c r="AO12" s="17"/>
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="11"/>
       <c r="G13" s="18"/>
       <c r="H13" s="8"/>
@@ -1748,535 +1753,535 @@
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="26">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="26">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="19">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="15">
+      <c r="I14" s="19">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="15">
+      <c r="K14" s="19">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="15">
+      <c r="M14" s="19">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="15">
+      <c r="O14" s="19">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="15">
+      <c r="Q14" s="19">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="15">
+      <c r="S14" s="19">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="15">
+      <c r="U14" s="19">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="15">
+      <c r="W14" s="19">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="15">
+      <c r="Y14" s="19">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15">
+      <c r="AA14" s="19">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="15">
+      <c r="AC14" s="19">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="15">
+      <c r="AE14" s="19">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="15">
+      <c r="AG14" s="19">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="15">
+      <c r="AI14" s="19">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="15">
+      <c r="AK14" s="19">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="15">
+      <c r="AM14" s="19">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="15">
+      <c r="AO14" s="19">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="16"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="17"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="16"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="16"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="16"/>
+      <c r="W15" s="17"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="16"/>
+      <c r="Y15" s="17"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="16"/>
+      <c r="AA15" s="17"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="16"/>
+      <c r="AC15" s="17"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="17"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="16"/>
+      <c r="AG15" s="17"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="16"/>
+      <c r="AI15" s="17"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="16"/>
+      <c r="AK15" s="17"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="16"/>
+      <c r="AM15" s="17"/>
       <c r="AN15" s="7"/>
-      <c r="AO15" s="16"/>
+      <c r="AO15" s="17"/>
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="17"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="16"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="16"/>
+      <c r="W16" s="17"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="17"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="16"/>
+      <c r="AA16" s="17"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="16"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="17"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="16"/>
+      <c r="AG16" s="17"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="16"/>
+      <c r="AI16" s="17"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="16"/>
+      <c r="AK16" s="17"/>
       <c r="AL16" s="7"/>
-      <c r="AM16" s="16"/>
+      <c r="AM16" s="17"/>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="16"/>
+      <c r="AO16" s="17"/>
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="16"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="16"/>
+      <c r="U17" s="17"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="16"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="17"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="16"/>
+      <c r="AA17" s="17"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="16"/>
+      <c r="AC17" s="17"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="16"/>
+      <c r="AE17" s="17"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="16"/>
+      <c r="AG17" s="17"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="16"/>
+      <c r="AI17" s="17"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="16"/>
+      <c r="AK17" s="17"/>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="16"/>
+      <c r="AM17" s="17"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="16"/>
+      <c r="AO17" s="17"/>
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="16"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="17"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="16"/>
+      <c r="AA18" s="17"/>
       <c r="AB18" s="8"/>
-      <c r="AC18" s="16"/>
+      <c r="AC18" s="17"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="16"/>
+      <c r="AE18" s="17"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="16"/>
+      <c r="AG18" s="17"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="16"/>
+      <c r="AI18" s="17"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="16"/>
+      <c r="AK18" s="17"/>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="16"/>
+      <c r="AM18" s="17"/>
       <c r="AN18" s="8"/>
-      <c r="AO18" s="16"/>
+      <c r="AO18" s="17"/>
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="26">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="26">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="16">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="16">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="16">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="16">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="16">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="16">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="16">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="16">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="16">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="16">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="16">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="16">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="16">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="16">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="16"/>
+      <c r="M20" s="17"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="16"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="17"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="16"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="16"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="16"/>
+      <c r="W20" s="17"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="16"/>
+      <c r="Y20" s="17"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="17"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="16"/>
+      <c r="AC20" s="17"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="16"/>
+      <c r="AE20" s="17"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="16"/>
+      <c r="AG20" s="17"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="16"/>
+      <c r="AI20" s="17"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="16"/>
+      <c r="AK20" s="17"/>
       <c r="AL20" s="7"/>
-      <c r="AM20" s="16"/>
+      <c r="AM20" s="17"/>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="16"/>
+      <c r="AO20" s="17"/>
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="16"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="16"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="17"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="16"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="16"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="16"/>
+      <c r="W21" s="17"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="16"/>
+      <c r="Y21" s="17"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="17"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="16"/>
+      <c r="AC21" s="17"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="16"/>
+      <c r="AE21" s="17"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="16"/>
+      <c r="AG21" s="17"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="16"/>
+      <c r="AI21" s="17"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="16"/>
+      <c r="AK21" s="17"/>
       <c r="AL21" s="7"/>
-      <c r="AM21" s="16"/>
+      <c r="AM21" s="17"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="16"/>
+      <c r="AO21" s="17"/>
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="16"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="17"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="16"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="16"/>
+      <c r="U22" s="17"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="16"/>
+      <c r="W22" s="17"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="17"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="16"/>
+      <c r="AA22" s="17"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="16"/>
+      <c r="AC22" s="17"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="16"/>
+      <c r="AE22" s="17"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="16"/>
+      <c r="AG22" s="17"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="16"/>
+      <c r="AI22" s="17"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="16"/>
+      <c r="AK22" s="17"/>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="16"/>
+      <c r="AM22" s="17"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="16"/>
+      <c r="AO22" s="17"/>
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
       <c r="H23" s="8"/>
@@ -2316,250 +2321,250 @@
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="26">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="26">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="K24" s="16">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="16">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="16">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="16">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="16">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="16">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="16">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="16">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="16">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="16">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="16">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="16">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="16">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="16">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="16">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="16">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="16"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="16"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="17"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="16"/>
+      <c r="S25" s="17"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="16"/>
+      <c r="U25" s="17"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="16"/>
+      <c r="W25" s="17"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="16"/>
+      <c r="Y25" s="17"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="16"/>
+      <c r="AA25" s="17"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="16"/>
+      <c r="AC25" s="17"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="16"/>
+      <c r="AE25" s="17"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="16"/>
+      <c r="AG25" s="17"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="16"/>
+      <c r="AI25" s="17"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="16"/>
+      <c r="AK25" s="17"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="16"/>
+      <c r="AM25" s="17"/>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="16"/>
+      <c r="AO25" s="17"/>
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="17"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="16"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="16"/>
+      <c r="S26" s="17"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="16"/>
+      <c r="U26" s="17"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="17"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="16"/>
+      <c r="Y26" s="17"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="16"/>
+      <c r="AA26" s="17"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="16"/>
+      <c r="AC26" s="17"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="17"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="16"/>
+      <c r="AG26" s="17"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="16"/>
+      <c r="AI26" s="17"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="16"/>
+      <c r="AK26" s="17"/>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="16"/>
+      <c r="AM26" s="17"/>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="16"/>
+      <c r="AO26" s="17"/>
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="16"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="16"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="16"/>
+      <c r="S27" s="17"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="16"/>
+      <c r="U27" s="17"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="16"/>
+      <c r="W27" s="17"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="16"/>
+      <c r="Y27" s="17"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="16"/>
+      <c r="AA27" s="17"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="16"/>
+      <c r="AC27" s="17"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="16"/>
+      <c r="AE27" s="17"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="16"/>
+      <c r="AG27" s="17"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="16"/>
+      <c r="AI27" s="17"/>
       <c r="AJ27" s="7"/>
-      <c r="AK27" s="16"/>
+      <c r="AK27" s="17"/>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="16"/>
+      <c r="AM27" s="17"/>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="16"/>
+      <c r="AO27" s="17"/>
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
       <c r="H28" s="8"/>
@@ -2599,535 +2604,535 @@
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="26">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="26">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="19">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="15">
+      <c r="I29" s="19">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="15">
+      <c r="K29" s="19">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="15">
+      <c r="M29" s="19">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="15">
+      <c r="O29" s="19">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="15">
+      <c r="Q29" s="19">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="15">
+      <c r="S29" s="19">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="15">
+      <c r="U29" s="19">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="15">
+      <c r="W29" s="19">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="15">
+      <c r="Y29" s="19">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="15">
+      <c r="AA29" s="19">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="15">
+      <c r="AC29" s="19">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="15">
+      <c r="AE29" s="19">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="15">
+      <c r="AG29" s="19">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="15">
+      <c r="AI29" s="19">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="15">
+      <c r="AK29" s="19">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="15">
+      <c r="AM29" s="19">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="15">
+      <c r="AO29" s="19">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="16"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="16"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="17"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="16"/>
+      <c r="S30" s="17"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="16"/>
+      <c r="U30" s="17"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="16"/>
+      <c r="W30" s="17"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="16"/>
+      <c r="Y30" s="17"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="16"/>
+      <c r="AA30" s="17"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="16"/>
+      <c r="AC30" s="17"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="16"/>
+      <c r="AE30" s="17"/>
       <c r="AF30" s="7"/>
-      <c r="AG30" s="16"/>
+      <c r="AG30" s="17"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="16"/>
+      <c r="AI30" s="17"/>
       <c r="AJ30" s="7"/>
-      <c r="AK30" s="16"/>
+      <c r="AK30" s="17"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="16"/>
+      <c r="AM30" s="17"/>
       <c r="AN30" s="7"/>
-      <c r="AO30" s="16"/>
+      <c r="AO30" s="17"/>
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="16"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="16"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="16"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="16"/>
+      <c r="S31" s="17"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="16"/>
+      <c r="U31" s="17"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="16"/>
+      <c r="W31" s="17"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="16"/>
+      <c r="Y31" s="17"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="16"/>
+      <c r="AA31" s="17"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="16"/>
+      <c r="AC31" s="17"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="16"/>
+      <c r="AE31" s="17"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="16"/>
+      <c r="AG31" s="17"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="16"/>
+      <c r="AI31" s="17"/>
       <c r="AJ31" s="7"/>
-      <c r="AK31" s="16"/>
+      <c r="AK31" s="17"/>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="16"/>
+      <c r="AM31" s="17"/>
       <c r="AN31" s="7"/>
-      <c r="AO31" s="16"/>
+      <c r="AO31" s="17"/>
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="16"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="17"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="16"/>
+      <c r="S32" s="17"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="16"/>
+      <c r="U32" s="17"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="16"/>
+      <c r="W32" s="17"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="16"/>
+      <c r="Y32" s="17"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="16"/>
+      <c r="AA32" s="17"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="16"/>
+      <c r="AC32" s="17"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="16"/>
+      <c r="AE32" s="17"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="16"/>
+      <c r="AG32" s="17"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="16"/>
+      <c r="AI32" s="17"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="16"/>
+      <c r="AK32" s="17"/>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="16"/>
+      <c r="AM32" s="17"/>
       <c r="AN32" s="7"/>
-      <c r="AO32" s="16"/>
+      <c r="AO32" s="17"/>
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="16"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="16"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="16"/>
+      <c r="S33" s="17"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="16"/>
+      <c r="U33" s="17"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="16"/>
+      <c r="W33" s="17"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="16"/>
+      <c r="Y33" s="17"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="16"/>
+      <c r="AA33" s="17"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="16"/>
+      <c r="AC33" s="17"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="16"/>
+      <c r="AE33" s="17"/>
       <c r="AF33" s="8"/>
-      <c r="AG33" s="16"/>
+      <c r="AG33" s="17"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="16"/>
+      <c r="AI33" s="17"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="16"/>
+      <c r="AK33" s="17"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="16"/>
+      <c r="AM33" s="17"/>
       <c r="AN33" s="8"/>
-      <c r="AO33" s="16"/>
+      <c r="AO33" s="17"/>
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="26">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="26">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="16">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="16">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="16">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="16">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="16">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="16">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="16">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="16">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="16">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="16">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="16">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="16">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="16">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="16">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="16">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="16">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="16">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="16"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="16"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="16"/>
+      <c r="S35" s="17"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="16"/>
+      <c r="U35" s="17"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="16"/>
+      <c r="W35" s="17"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="16"/>
+      <c r="Y35" s="17"/>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="16"/>
+      <c r="AA35" s="17"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="16"/>
+      <c r="AC35" s="17"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="16"/>
+      <c r="AE35" s="17"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="16"/>
+      <c r="AG35" s="17"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="16"/>
+      <c r="AI35" s="17"/>
       <c r="AJ35" s="7"/>
-      <c r="AK35" s="16"/>
+      <c r="AK35" s="17"/>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="16"/>
+      <c r="AM35" s="17"/>
       <c r="AN35" s="7"/>
-      <c r="AO35" s="16"/>
+      <c r="AO35" s="17"/>
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="16"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="16"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="17"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="16"/>
+      <c r="S36" s="17"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="16"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="16"/>
+      <c r="W36" s="17"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="16"/>
+      <c r="Y36" s="17"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="16"/>
+      <c r="AA36" s="17"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="16"/>
+      <c r="AC36" s="17"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="16"/>
+      <c r="AE36" s="17"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="16"/>
+      <c r="AG36" s="17"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="16"/>
+      <c r="AI36" s="17"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36" s="16"/>
+      <c r="AK36" s="17"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="16"/>
+      <c r="AM36" s="17"/>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="16"/>
+      <c r="AO36" s="17"/>
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="16"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="16"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="17"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="16"/>
+      <c r="S37" s="17"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="16"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="16"/>
+      <c r="W37" s="17"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="7"/>
-      <c r="AA37" s="16"/>
+      <c r="AA37" s="17"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="16"/>
+      <c r="AC37" s="17"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="16"/>
+      <c r="AE37" s="17"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="16"/>
+      <c r="AG37" s="17"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="16"/>
+      <c r="AI37" s="17"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="16"/>
+      <c r="AK37" s="17"/>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="16"/>
+      <c r="AM37" s="17"/>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="16"/>
+      <c r="AO37" s="17"/>
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="11"/>
       <c r="G38" s="18"/>
       <c r="H38" s="8"/>
@@ -3168,6 +3173,150 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3192,150 +3341,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6AF6D-2113-412A-B918-31DEF24327C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC57444-73E0-404A-BA43-BDF0504AF6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>HTML</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>CS50X: lecture 2 (2 h)</t>
+  </si>
+  <si>
+    <t>CS50T: lecture 0. Hardware Assignment</t>
+  </si>
+  <si>
+    <t>CS50T: lecture 1. Internet (1 h)</t>
+  </si>
+  <si>
+    <t>CSS test</t>
+  </si>
+  <si>
+    <t>Crash course CS</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,10 +907,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,7 +1789,9 @@
         <f>G9+1</f>
         <v>44076</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="I14" s="19">
         <f>I9+1</f>
         <v>44083</v>
@@ -1870,7 +1887,9 @@
       <c r="E15" s="23"/>
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="7"/>
       <c r="K15" s="17"/>
@@ -1913,7 +1932,9 @@
       <c r="E16" s="23"/>
       <c r="F16" s="9"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="7"/>
       <c r="K16" s="17"/>
@@ -2057,7 +2078,9 @@
         <f>G14+1</f>
         <v>44077</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="I19" s="16">
         <f>I14+1</f>
         <v>44084</v>
@@ -3352,9 +3375,10 @@
     <hyperlink ref="F30" r:id="rId7" xr:uid="{3083A5EA-62E7-4232-A069-5FCCF02ADFDB}"/>
     <hyperlink ref="F34" r:id="rId8" location=":~:text=submit50%20cs50/problems/2020/x/credit" xr:uid="{B92DFA2E-2928-470E-9282-849BA68DBD4E}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{557ABC9D-5016-4931-BEA8-375439844343}"/>
+    <hyperlink ref="H19" r:id="rId10" xr:uid="{38A7F4DB-7ED6-410F-850C-B5B1FF221B7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC57444-73E0-404A-BA43-BDF0504AF6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA9FE5-1910-4326-BEF4-2FB7804AC559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>HTML</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Crash course CS</t>
+  </si>
+  <si>
+    <t>Crash course CS (1.5h)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 2 (1.5 h): functions, arrays, command line, variables and scope</t>
   </si>
 </sst>
 </file>
@@ -547,16 +553,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,29 +583,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,10 +913,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,111 +969,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="20">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="20">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="20">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="20">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="20">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="20">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="20">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="20">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="20">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="20">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="20">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="20">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="21"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1190,2156 +1196,2016 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="19">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="19">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="19">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="19">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="19">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="19">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="19">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="19">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="19">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="19">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="19">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="19">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="19">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="19">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="17"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="18"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="17"/>
+      <c r="Y5" s="18"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="17"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="17"/>
+      <c r="AC5" s="18"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="17"/>
+      <c r="AE5" s="18"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="17"/>
+      <c r="AG5" s="18"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="17"/>
+      <c r="AI5" s="18"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="17"/>
+      <c r="AK5" s="18"/>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="17"/>
+      <c r="AM5" s="18"/>
       <c r="AN5" s="7"/>
-      <c r="AO5" s="17"/>
+      <c r="AO5" s="18"/>
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="17"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="17"/>
+      <c r="O6" s="18"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="18"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="17"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="17"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="17"/>
+      <c r="Y6" s="18"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="17"/>
+      <c r="AA6" s="18"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="17"/>
+      <c r="AC6" s="18"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="18"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="17"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="17"/>
+      <c r="AI6" s="18"/>
       <c r="AJ6" s="7"/>
-      <c r="AK6" s="17"/>
+      <c r="AK6" s="18"/>
       <c r="AL6" s="7"/>
-      <c r="AM6" s="17"/>
+      <c r="AM6" s="18"/>
       <c r="AN6" s="7"/>
-      <c r="AO6" s="17"/>
+      <c r="AO6" s="18"/>
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="17"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="17"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="17"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="17"/>
+      <c r="Y7" s="18"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="17"/>
+      <c r="AC7" s="18"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="18"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="17"/>
+      <c r="AG7" s="18"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="17"/>
+      <c r="AI7" s="18"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="17"/>
+      <c r="AK7" s="18"/>
       <c r="AL7" s="7"/>
-      <c r="AM7" s="17"/>
+      <c r="AM7" s="18"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="17"/>
+      <c r="AO7" s="18"/>
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="18"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="18"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="18"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="18"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="18"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="18"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="18"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="16">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="16">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="16">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="16">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="16">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="16">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="16">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="16">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="16">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="16">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="16">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="16">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="16">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="16">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="16">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="16">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="17"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="17"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="17"/>
+      <c r="W10" s="18"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="17"/>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="7"/>
-      <c r="AA10" s="17"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="17"/>
+      <c r="AC10" s="18"/>
       <c r="AD10" s="7"/>
-      <c r="AE10" s="17"/>
+      <c r="AE10" s="18"/>
       <c r="AF10" s="7"/>
-      <c r="AG10" s="17"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="17"/>
+      <c r="AI10" s="18"/>
       <c r="AJ10" s="7"/>
-      <c r="AK10" s="17"/>
+      <c r="AK10" s="18"/>
       <c r="AL10" s="7"/>
-      <c r="AM10" s="17"/>
+      <c r="AM10" s="18"/>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="17"/>
+      <c r="AO10" s="18"/>
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="17"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="17"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="17"/>
+      <c r="U11" s="18"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="17"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="17"/>
+      <c r="Y11" s="18"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="17"/>
+      <c r="AA11" s="18"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="17"/>
+      <c r="AC11" s="18"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="17"/>
+      <c r="AE11" s="18"/>
       <c r="AF11" s="7"/>
-      <c r="AG11" s="17"/>
+      <c r="AG11" s="18"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="17"/>
+      <c r="AI11" s="18"/>
       <c r="AJ11" s="7"/>
-      <c r="AK11" s="17"/>
+      <c r="AK11" s="18"/>
       <c r="AL11" s="7"/>
-      <c r="AM11" s="17"/>
+      <c r="AM11" s="18"/>
       <c r="AN11" s="7"/>
-      <c r="AO11" s="17"/>
+      <c r="AO11" s="18"/>
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="17"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="17"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="17"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="17"/>
+      <c r="Y12" s="18"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="17"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="17"/>
+      <c r="AC12" s="18"/>
       <c r="AD12" s="7"/>
-      <c r="AE12" s="17"/>
+      <c r="AE12" s="18"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="17"/>
+      <c r="AG12" s="18"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="17"/>
+      <c r="AI12" s="18"/>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="17"/>
+      <c r="AK12" s="18"/>
       <c r="AL12" s="7"/>
-      <c r="AM12" s="17"/>
+      <c r="AM12" s="18"/>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="17"/>
+      <c r="AO12" s="18"/>
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="18"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="18"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="18"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="18"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="18"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="18"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="18"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="18"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="18"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="19">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="19">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="19">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="19">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="19">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="19">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="19">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="19">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="19">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="19">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="19">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="19">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="19">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="19">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="17"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="17"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="17"/>
+      <c r="W15" s="18"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="17"/>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="17"/>
+      <c r="AA15" s="18"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="17"/>
+      <c r="AC15" s="18"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="17"/>
+      <c r="AE15" s="18"/>
       <c r="AF15" s="7"/>
-      <c r="AG15" s="17"/>
+      <c r="AG15" s="18"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="17"/>
+      <c r="AI15" s="18"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="18"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="17"/>
+      <c r="AM15" s="18"/>
       <c r="AN15" s="7"/>
-      <c r="AO15" s="17"/>
+      <c r="AO15" s="18"/>
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="17"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="17"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="17"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="17"/>
+      <c r="Y16" s="18"/>
       <c r="Z16" s="7"/>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="18"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="17"/>
+      <c r="AC16" s="18"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="17"/>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="17"/>
+      <c r="AG16" s="18"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="17"/>
+      <c r="AI16" s="18"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="17"/>
+      <c r="AK16" s="18"/>
       <c r="AL16" s="7"/>
-      <c r="AM16" s="17"/>
+      <c r="AM16" s="18"/>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="17"/>
+      <c r="AO16" s="18"/>
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="17"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="18"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="17"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="17"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="17"/>
+      <c r="W17" s="18"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="17"/>
+      <c r="Y17" s="18"/>
       <c r="Z17" s="7"/>
-      <c r="AA17" s="17"/>
+      <c r="AA17" s="18"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="17"/>
+      <c r="AC17" s="18"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="17"/>
+      <c r="AE17" s="18"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="17"/>
+      <c r="AG17" s="18"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="17"/>
+      <c r="AI17" s="18"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="17"/>
+      <c r="AK17" s="18"/>
       <c r="AL17" s="7"/>
-      <c r="AM17" s="17"/>
+      <c r="AM17" s="18"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="17"/>
+      <c r="AO17" s="18"/>
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="17"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="17"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="17"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="17"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="17"/>
+      <c r="AA18" s="18"/>
       <c r="AB18" s="8"/>
-      <c r="AC18" s="17"/>
+      <c r="AC18" s="18"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="17"/>
+      <c r="AE18" s="18"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="17"/>
+      <c r="AG18" s="18"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="17"/>
+      <c r="AI18" s="18"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="17"/>
+      <c r="AK18" s="18"/>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="17"/>
+      <c r="AM18" s="18"/>
       <c r="AN18" s="8"/>
-      <c r="AO18" s="17"/>
+      <c r="AO18" s="18"/>
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="16">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="16">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="16">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="16">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="16">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="16">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="16">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="16">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="16">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="16">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="16">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="16">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="16">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="16">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="16">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="16">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="17"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="17"/>
+      <c r="S20" s="18"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="17"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="17"/>
+      <c r="W20" s="18"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="17"/>
+      <c r="Y20" s="18"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="17"/>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="17"/>
+      <c r="AC20" s="18"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="17"/>
+      <c r="AE20" s="18"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="17"/>
+      <c r="AG20" s="18"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="17"/>
+      <c r="AI20" s="18"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="17"/>
+      <c r="AK20" s="18"/>
       <c r="AL20" s="7"/>
-      <c r="AM20" s="17"/>
+      <c r="AM20" s="18"/>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="17"/>
+      <c r="AO20" s="18"/>
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="18"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="18"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="17"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="17"/>
+      <c r="W21" s="18"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="17"/>
+      <c r="Y21" s="18"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="17"/>
+      <c r="AA21" s="18"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="17"/>
+      <c r="AC21" s="18"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="17"/>
+      <c r="AE21" s="18"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="17"/>
+      <c r="AG21" s="18"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="17"/>
+      <c r="AI21" s="18"/>
       <c r="AJ21" s="7"/>
-      <c r="AK21" s="17"/>
+      <c r="AK21" s="18"/>
       <c r="AL21" s="7"/>
-      <c r="AM21" s="17"/>
+      <c r="AM21" s="18"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="17"/>
+      <c r="AO21" s="18"/>
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="17"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="17"/>
+      <c r="S22" s="18"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="17"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="17"/>
+      <c r="W22" s="18"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="17"/>
+      <c r="Y22" s="18"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="17"/>
+      <c r="AA22" s="18"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="17"/>
+      <c r="AC22" s="18"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="17"/>
+      <c r="AE22" s="18"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="17"/>
+      <c r="AG22" s="18"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="17"/>
+      <c r="AI22" s="18"/>
       <c r="AJ22" s="7"/>
-      <c r="AK22" s="17"/>
+      <c r="AK22" s="18"/>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="17"/>
+      <c r="AM22" s="18"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="17"/>
+      <c r="AO22" s="18"/>
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="18"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="18"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="18"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="18"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="18"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="18"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="18"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="18"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="18"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="16">
+      <c r="H24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="16">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="16">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="16">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="16">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="16">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="16">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="16">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="16">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="16">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="16">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="16">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="16">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="16">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="16">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="16">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="16">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="17"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="18"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="17"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="17"/>
+      <c r="S25" s="18"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="17"/>
+      <c r="U25" s="18"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="17"/>
+      <c r="W25" s="18"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="17"/>
+      <c r="Y25" s="18"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="17"/>
+      <c r="AA25" s="18"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="17"/>
+      <c r="AC25" s="18"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="17"/>
+      <c r="AE25" s="18"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="17"/>
+      <c r="AG25" s="18"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="17"/>
+      <c r="AI25" s="18"/>
       <c r="AJ25" s="7"/>
-      <c r="AK25" s="17"/>
+      <c r="AK25" s="18"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="17"/>
+      <c r="AM25" s="18"/>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="17"/>
+      <c r="AO25" s="18"/>
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="17"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="17"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="17"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="17"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="17"/>
+      <c r="W26" s="18"/>
       <c r="X26" s="7"/>
-      <c r="Y26" s="17"/>
+      <c r="Y26" s="18"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="17"/>
+      <c r="AA26" s="18"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="17"/>
+      <c r="AC26" s="18"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="17"/>
+      <c r="AE26" s="18"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="17"/>
+      <c r="AG26" s="18"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="17"/>
+      <c r="AI26" s="18"/>
       <c r="AJ26" s="7"/>
-      <c r="AK26" s="17"/>
+      <c r="AK26" s="18"/>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="17"/>
+      <c r="AM26" s="18"/>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="17"/>
+      <c r="AO26" s="18"/>
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="17"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="17"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="17"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="17"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="17"/>
+      <c r="S27" s="18"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="17"/>
+      <c r="U27" s="18"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="17"/>
+      <c r="W27" s="18"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="17"/>
+      <c r="Y27" s="18"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="17"/>
+      <c r="AA27" s="18"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="17"/>
+      <c r="AC27" s="18"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="17"/>
+      <c r="AE27" s="18"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="17"/>
+      <c r="AG27" s="18"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="17"/>
+      <c r="AI27" s="18"/>
       <c r="AJ27" s="7"/>
-      <c r="AK27" s="17"/>
+      <c r="AK27" s="18"/>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="17"/>
+      <c r="AM27" s="18"/>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="17"/>
+      <c r="AO27" s="18"/>
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="18"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="18"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="18"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="18"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="18"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="18"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="18"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="18"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="18"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="18"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="18"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="18"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="18"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="18"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="19">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="19">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="19">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="19">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="19">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="19">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="19">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="19">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="19">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="19">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="19">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="19">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="19">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="19">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="19">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="19">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="19">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="17"/>
+      <c r="O30" s="18"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="17"/>
+      <c r="S30" s="18"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="17"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="17"/>
+      <c r="W30" s="18"/>
       <c r="X30" s="7"/>
-      <c r="Y30" s="17"/>
+      <c r="Y30" s="18"/>
       <c r="Z30" s="7"/>
-      <c r="AA30" s="17"/>
+      <c r="AA30" s="18"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="17"/>
+      <c r="AC30" s="18"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="17"/>
+      <c r="AE30" s="18"/>
       <c r="AF30" s="7"/>
-      <c r="AG30" s="17"/>
+      <c r="AG30" s="18"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="17"/>
+      <c r="AI30" s="18"/>
       <c r="AJ30" s="7"/>
-      <c r="AK30" s="17"/>
+      <c r="AK30" s="18"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="17"/>
+      <c r="AM30" s="18"/>
       <c r="AN30" s="7"/>
-      <c r="AO30" s="17"/>
+      <c r="AO30" s="18"/>
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="17"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="17"/>
+      <c r="O31" s="18"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="17"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="17"/>
+      <c r="S31" s="18"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="17"/>
+      <c r="U31" s="18"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="17"/>
+      <c r="W31" s="18"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="17"/>
+      <c r="Y31" s="18"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="17"/>
+      <c r="AA31" s="18"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="17"/>
+      <c r="AC31" s="18"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="17"/>
+      <c r="AE31" s="18"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="17"/>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="17"/>
+      <c r="AI31" s="18"/>
       <c r="AJ31" s="7"/>
-      <c r="AK31" s="17"/>
+      <c r="AK31" s="18"/>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="17"/>
+      <c r="AM31" s="18"/>
       <c r="AN31" s="7"/>
-      <c r="AO31" s="17"/>
+      <c r="AO31" s="18"/>
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="23"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="17"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="17"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="18"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="17"/>
+      <c r="S32" s="18"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="17"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="17"/>
+      <c r="W32" s="18"/>
       <c r="X32" s="7"/>
-      <c r="Y32" s="17"/>
+      <c r="Y32" s="18"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="17"/>
+      <c r="AA32" s="18"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="17"/>
+      <c r="AC32" s="18"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="17"/>
+      <c r="AE32" s="18"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="17"/>
+      <c r="AG32" s="18"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="17"/>
+      <c r="AI32" s="18"/>
       <c r="AJ32" s="7"/>
-      <c r="AK32" s="17"/>
+      <c r="AK32" s="18"/>
       <c r="AL32" s="7"/>
-      <c r="AM32" s="17"/>
+      <c r="AM32" s="18"/>
       <c r="AN32" s="7"/>
-      <c r="AO32" s="17"/>
+      <c r="AO32" s="18"/>
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="24"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="17"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="17"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="18"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="17"/>
+      <c r="Q33" s="18"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="17"/>
+      <c r="S33" s="18"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="17"/>
+      <c r="U33" s="18"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="17"/>
+      <c r="W33" s="18"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="17"/>
+      <c r="Y33" s="18"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="17"/>
+      <c r="AA33" s="18"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="17"/>
+      <c r="AC33" s="18"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="17"/>
+      <c r="AE33" s="18"/>
       <c r="AF33" s="8"/>
-      <c r="AG33" s="17"/>
+      <c r="AG33" s="18"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="17"/>
+      <c r="AI33" s="18"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="17"/>
+      <c r="AK33" s="18"/>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="17"/>
+      <c r="AM33" s="18"/>
       <c r="AN33" s="8"/>
-      <c r="AO33" s="17"/>
+      <c r="AO33" s="18"/>
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="16">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="16">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="16">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="16">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="16">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="16">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="16">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="16">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="16">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="16">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="16">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="16">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="16">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="16">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="16">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="16">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="16">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="17"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="17"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="17"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="17"/>
+      <c r="O35" s="18"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="17"/>
+      <c r="Q35" s="18"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="17"/>
+      <c r="S35" s="18"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="17"/>
+      <c r="U35" s="18"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="17"/>
+      <c r="W35" s="18"/>
       <c r="X35" s="7"/>
-      <c r="Y35" s="17"/>
+      <c r="Y35" s="18"/>
       <c r="Z35" s="7"/>
-      <c r="AA35" s="17"/>
+      <c r="AA35" s="18"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="17"/>
+      <c r="AC35" s="18"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="17"/>
+      <c r="AE35" s="18"/>
       <c r="AF35" s="7"/>
-      <c r="AG35" s="17"/>
+      <c r="AG35" s="18"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="17"/>
+      <c r="AI35" s="18"/>
       <c r="AJ35" s="7"/>
-      <c r="AK35" s="17"/>
+      <c r="AK35" s="18"/>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="17"/>
+      <c r="AM35" s="18"/>
       <c r="AN35" s="7"/>
-      <c r="AO35" s="17"/>
+      <c r="AO35" s="18"/>
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="17"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="17"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="17"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="18"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="17"/>
+      <c r="S36" s="18"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="17"/>
+      <c r="U36" s="18"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="17"/>
+      <c r="W36" s="18"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="17"/>
+      <c r="Y36" s="18"/>
       <c r="Z36" s="7"/>
-      <c r="AA36" s="17"/>
+      <c r="AA36" s="18"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="17"/>
+      <c r="AC36" s="18"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="17"/>
+      <c r="AE36" s="18"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="17"/>
+      <c r="AG36" s="18"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="17"/>
+      <c r="AI36" s="18"/>
       <c r="AJ36" s="7"/>
-      <c r="AK36" s="17"/>
+      <c r="AK36" s="18"/>
       <c r="AL36" s="7"/>
-      <c r="AM36" s="17"/>
+      <c r="AM36" s="18"/>
       <c r="AN36" s="7"/>
-      <c r="AO36" s="17"/>
+      <c r="AO36" s="18"/>
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="17"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="17"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="17"/>
+      <c r="O37" s="18"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="17"/>
+      <c r="Q37" s="18"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="17"/>
+      <c r="S37" s="18"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="17"/>
+      <c r="U37" s="18"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="17"/>
+      <c r="W37" s="18"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="17"/>
+      <c r="Y37" s="18"/>
       <c r="Z37" s="7"/>
-      <c r="AA37" s="17"/>
+      <c r="AA37" s="18"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="17"/>
+      <c r="AC37" s="18"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="17"/>
+      <c r="AE37" s="18"/>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="17"/>
+      <c r="AG37" s="18"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="17"/>
+      <c r="AI37" s="18"/>
       <c r="AJ37" s="7"/>
-      <c r="AK37" s="17"/>
+      <c r="AK37" s="18"/>
       <c r="AL37" s="7"/>
-      <c r="AM37" s="17"/>
+      <c r="AM37" s="18"/>
       <c r="AN37" s="7"/>
-      <c r="AO37" s="17"/>
+      <c r="AO37" s="18"/>
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="18"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="18"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="18"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="18"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="18"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="18"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="18"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="18"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="18"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="18"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="18"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="18"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="18"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="18"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3364,6 +3230,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3376,9 +3386,10 @@
     <hyperlink ref="F34" r:id="rId8" location=":~:text=submit50%20cs50/problems/2020/x/credit" xr:uid="{B92DFA2E-2928-470E-9282-849BA68DBD4E}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{557ABC9D-5016-4931-BEA8-375439844343}"/>
     <hyperlink ref="H19" r:id="rId10" xr:uid="{38A7F4DB-7ED6-410F-850C-B5B1FF221B7D}"/>
+    <hyperlink ref="H24" r:id="rId11" xr:uid="{707012FB-B4E5-459F-8F64-51A412A05BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DA9FE5-1910-4326-BEF4-2FB7804AC559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9F076-64DF-41FF-B6A0-4ED869EF62A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>HTML</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>CS50X: lecture 2 (1.5 h): functions, arrays, command line, variables and scope</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 2 - pset2 Readability</t>
   </si>
 </sst>
 </file>
@@ -556,19 +559,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,23 +586,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,7 +919,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,111 +972,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1196,123 +1199,123 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1356,12 +1359,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1401,10 +1404,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1444,166 +1447,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1645,10 +1648,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1688,10 +1691,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1731,166 +1734,166 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1932,10 +1935,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1977,10 +1980,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2020,10 +2023,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2063,123 +2066,123 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2221,10 +2224,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2264,10 +2267,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2307,164 +2310,164 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2508,10 +2511,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2551,10 +2554,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2594,164 +2597,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="17">
+      <c r="H29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2793,10 +2798,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2836,10 +2841,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2879,10 +2884,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2922,121 +2927,121 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3076,10 +3081,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3119,10 +3124,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3162,50 +3167,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3230,150 +3379,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3387,9 +3392,10 @@
     <hyperlink ref="H5" r:id="rId9" xr:uid="{557ABC9D-5016-4931-BEA8-375439844343}"/>
     <hyperlink ref="H19" r:id="rId10" xr:uid="{38A7F4DB-7ED6-410F-850C-B5B1FF221B7D}"/>
     <hyperlink ref="H24" r:id="rId11" xr:uid="{707012FB-B4E5-459F-8F64-51A412A05BF4}"/>
+    <hyperlink ref="H29" r:id="rId12" location=":~:text=A%20large%20class%20of%20computational%20problems%20involve%20the%20determination%20of%20properties%20of%20graphs,%20digraphs,%20integers,%20arrays%20of%20integers,%20finite%20families%20of%20finite%20sets,%20boolean%20formulas%20and%20elements%20of%20other%20countable%20domains." xr:uid="{CBDCF6E9-CC1D-4493-AC70-A54FF57374BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9F076-64DF-41FF-B6A0-4ED869EF62A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8C67A-F5C2-462F-81A3-7C97A4A2EF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>HTML</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>CS50X: lecture 2 - pset2 Readability</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 2 - pset2 Substitution</t>
   </si>
 </sst>
 </file>
@@ -559,16 +562,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,26 +589,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,10 +919,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,111 +975,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1199,123 +1202,123 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1359,12 +1362,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1404,10 +1407,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1447,166 +1450,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1648,10 +1651,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1691,10 +1694,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1734,166 +1737,166 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1935,10 +1938,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1980,10 +1983,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2023,10 +2026,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2066,123 +2069,123 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2224,10 +2227,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2267,10 +2270,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2310,164 +2313,164 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2511,10 +2514,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2554,10 +2557,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2597,166 +2600,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2798,10 +2801,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2841,10 +2844,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2884,10 +2887,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2927,121 +2930,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="17">
+      <c r="H34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3081,10 +3086,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3124,10 +3129,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3167,194 +3172,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3379,6 +3240,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3393,9 +3398,10 @@
     <hyperlink ref="H19" r:id="rId10" xr:uid="{38A7F4DB-7ED6-410F-850C-B5B1FF221B7D}"/>
     <hyperlink ref="H24" r:id="rId11" xr:uid="{707012FB-B4E5-459F-8F64-51A412A05BF4}"/>
     <hyperlink ref="H29" r:id="rId12" location=":~:text=A%20large%20class%20of%20computational%20problems%20involve%20the%20determination%20of%20properties%20of%20graphs,%20digraphs,%20integers,%20arrays%20of%20integers,%20finite%20families%20of%20finite%20sets,%20boolean%20formulas%20and%20elements%20of%20other%20countable%20domains." xr:uid="{CBDCF6E9-CC1D-4493-AC70-A54FF57374BC}"/>
+    <hyperlink ref="H34" r:id="rId13" location=":~:text=submit50%20cs50/problems/2020/x/substitution" xr:uid="{03740C92-E0D6-474E-8142-518BD2683A72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8C67A-F5C2-462F-81A3-7C97A4A2EF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA8614-7759-4EBF-A1C4-1C20034469F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>HTML</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>CS50X: lecture 2 - pset2 Substitution</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 3. Algorithms (1.5 h)</t>
   </si>
 </sst>
 </file>
@@ -562,19 +565,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,23 +592,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,10 +922,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,111 +978,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1202,123 +1205,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="17">
+      <c r="J4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1362,12 +1367,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1407,10 +1412,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1450,166 +1455,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1651,10 +1656,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1694,10 +1699,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1737,166 +1742,166 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1938,10 +1943,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1983,10 +1988,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2026,10 +2031,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2069,123 +2074,123 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2227,10 +2232,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2270,10 +2275,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2313,164 +2318,164 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2514,10 +2519,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2557,10 +2562,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2600,166 +2605,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2801,10 +2806,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2844,10 +2849,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2887,10 +2892,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2930,123 +2935,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3086,10 +3091,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3129,10 +3134,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3172,50 +3177,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3240,150 +3389,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA8614-7759-4EBF-A1C4-1C20034469F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD92F6D-F4D7-4B05-A1A9-935B67640663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>HTML</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>CS50X: lecture 3. Algorithms (1.5 h)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 3. Search algorithms (1 h)</t>
   </si>
 </sst>
 </file>
@@ -565,16 +568,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,26 +595,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,10 +925,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,111 +981,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1205,125 +1208,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1367,12 +1370,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1412,10 +1415,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1455,166 +1458,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1656,10 +1659,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1699,10 +1702,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1742,166 +1745,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="20">
+      <c r="J14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1943,10 +1948,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1988,10 +1993,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2031,10 +2036,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2074,123 +2079,123 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2232,10 +2237,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2275,10 +2280,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2318,164 +2323,164 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2519,10 +2524,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2562,10 +2567,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2605,166 +2610,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2806,10 +2811,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2849,10 +2854,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2892,10 +2897,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2935,123 +2940,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3091,10 +3096,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3134,10 +3139,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3177,194 +3182,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3389,6 +3250,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD92F6D-F4D7-4B05-A1A9-935B67640663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155EDB0E-A2A8-4DB4-8DF6-8583BED26DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>HTML</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>CS50X: lecture 3. Search algorithms (1 h)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 3 - pset3 Plurality</t>
   </si>
 </sst>
 </file>
@@ -568,19 +571,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,23 +598,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,10 +928,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,111 +984,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1208,125 +1211,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1370,12 +1373,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1415,10 +1418,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1458,166 +1461,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1659,10 +1662,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1702,10 +1705,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1745,168 +1748,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1948,10 +1951,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1993,10 +1996,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2036,10 +2039,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2079,123 +2082,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="19">
+      <c r="J19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2237,10 +2242,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2280,10 +2285,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2323,164 +2328,164 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2524,10 +2529,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2567,10 +2572,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2610,166 +2615,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2811,10 +2816,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2854,10 +2859,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2897,10 +2902,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2940,123 +2945,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3096,10 +3101,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3139,10 +3144,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3182,50 +3187,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3250,150 +3399,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3409,9 +3414,10 @@
     <hyperlink ref="H24" r:id="rId11" xr:uid="{707012FB-B4E5-459F-8F64-51A412A05BF4}"/>
     <hyperlink ref="H29" r:id="rId12" location=":~:text=A%20large%20class%20of%20computational%20problems%20involve%20the%20determination%20of%20properties%20of%20graphs,%20digraphs,%20integers,%20arrays%20of%20integers,%20finite%20families%20of%20finite%20sets,%20boolean%20formulas%20and%20elements%20of%20other%20countable%20domains." xr:uid="{CBDCF6E9-CC1D-4493-AC70-A54FF57374BC}"/>
     <hyperlink ref="H34" r:id="rId13" location=":~:text=submit50%20cs50/problems/2020/x/substitution" xr:uid="{03740C92-E0D6-474E-8142-518BD2683A72}"/>
+    <hyperlink ref="J19" r:id="rId14" location=":~:text=submit50%20cs50/problems/2020/x/plurality" xr:uid="{5230DBC5-C66B-441B-B6F9-95CD3B06940E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155EDB0E-A2A8-4DB4-8DF6-8583BED26DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF25637-50D1-4B55-87F6-6038BFDA716B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>HTML</t>
   </si>
@@ -571,16 +571,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,26 +598,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,10 +928,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,111 +984,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1211,125 +1211,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1373,12 +1373,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1418,10 +1418,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1461,166 +1461,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1662,10 +1662,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1705,10 +1705,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1748,168 +1748,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1951,10 +1951,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1996,10 +1996,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2039,10 +2039,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2082,125 +2082,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2285,10 +2285,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2328,164 +2328,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="17">
+      <c r="J24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2494,7 +2496,9 @@
         <v>79</v>
       </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K25" s="18"/>
       <c r="L25" s="7"/>
       <c r="M25" s="18"/>
@@ -2529,10 +2533,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2572,10 +2576,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2615,166 +2619,166 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2816,10 +2820,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2859,10 +2863,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2902,10 +2906,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2945,123 +2949,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3101,10 +3105,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3144,10 +3148,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3187,194 +3191,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3399,6 +3259,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3415,9 +3419,10 @@
     <hyperlink ref="H29" r:id="rId12" location=":~:text=A%20large%20class%20of%20computational%20problems%20involve%20the%20determination%20of%20properties%20of%20graphs,%20digraphs,%20integers,%20arrays%20of%20integers,%20finite%20families%20of%20finite%20sets,%20boolean%20formulas%20and%20elements%20of%20other%20countable%20domains." xr:uid="{CBDCF6E9-CC1D-4493-AC70-A54FF57374BC}"/>
     <hyperlink ref="H34" r:id="rId13" location=":~:text=submit50%20cs50/problems/2020/x/substitution" xr:uid="{03740C92-E0D6-474E-8142-518BD2683A72}"/>
     <hyperlink ref="J19" r:id="rId14" location=":~:text=submit50%20cs50/problems/2020/x/plurality" xr:uid="{5230DBC5-C66B-441B-B6F9-95CD3B06940E}"/>
+    <hyperlink ref="J24" r:id="rId15" xr:uid="{AA5BA877-123B-4E04-8D72-771B0C7768E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF25637-50D1-4B55-87F6-6038BFDA716B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0134A3-E9DC-4046-8CD2-94EBFAD82586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>HTML</t>
   </si>
@@ -571,19 +571,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,23 +598,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,10 +928,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,111 +984,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1211,125 +1211,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1373,12 +1373,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1418,10 +1418,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1461,166 +1461,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1662,10 +1662,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1705,10 +1705,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1748,168 +1748,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1951,10 +1951,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1996,10 +1996,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2039,10 +2039,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2082,125 +2082,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2285,10 +2285,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2328,166 +2328,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2533,10 +2533,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2576,10 +2576,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2619,166 +2619,168 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="17">
+      <c r="J29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2820,10 +2822,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2863,10 +2865,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2906,10 +2908,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2949,123 +2951,123 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3105,10 +3107,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3148,10 +3150,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3191,50 +3193,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3259,150 +3405,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0134A3-E9DC-4046-8CD2-94EBFAD82586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4AB74-5F1A-4C1B-BB2D-C8399833CCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>CS50X: lecture 3 - pset3 Plurality</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 3 - pset3 Tidemann (WIP)</t>
   </si>
 </sst>
 </file>
@@ -571,16 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,26 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1211,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1373,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1418,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1461,166 +1464,166 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1662,10 +1665,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1705,10 +1708,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1748,168 +1751,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1951,10 +1954,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1996,10 +1999,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2039,10 +2042,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2082,125 +2085,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2242,10 +2245,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2285,10 +2288,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2328,166 +2331,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2533,10 +2536,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2576,10 +2579,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2619,168 +2622,168 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2822,10 +2825,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2865,10 +2868,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2908,10 +2911,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2951,123 +2954,125 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="17">
+      <c r="J34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3107,10 +3112,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3150,10 +3155,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3193,194 +3198,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3405,6 +3266,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3422,9 +3427,10 @@
     <hyperlink ref="H34" r:id="rId13" location=":~:text=submit50%20cs50/problems/2020/x/substitution" xr:uid="{03740C92-E0D6-474E-8142-518BD2683A72}"/>
     <hyperlink ref="J19" r:id="rId14" location=":~:text=submit50%20cs50/problems/2020/x/plurality" xr:uid="{5230DBC5-C66B-441B-B6F9-95CD3B06940E}"/>
     <hyperlink ref="J24" r:id="rId15" xr:uid="{AA5BA877-123B-4E04-8D72-771B0C7768E8}"/>
+    <hyperlink ref="J34" r:id="rId16" xr:uid="{06871212-F124-4C14-B56F-C0086C009F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4AB74-5F1A-4C1B-BB2D-C8399833CCCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF167FC-D57B-444C-91DD-D551598185F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,19 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,23 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,166 +1464,168 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="19">
+      <c r="L9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1665,10 +1667,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1708,10 +1710,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1751,168 +1753,168 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1954,10 +1956,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -1999,10 +2001,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2042,10 +2044,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2085,125 +2087,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2245,10 +2247,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2288,10 +2290,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2331,166 +2333,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2536,10 +2538,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2579,10 +2581,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2622,168 +2624,168 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2825,10 +2827,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2868,10 +2870,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2911,10 +2913,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2954,125 +2956,125 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3112,10 +3114,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3155,10 +3157,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3198,50 +3200,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3266,150 +3412,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3428,9 +3430,10 @@
     <hyperlink ref="J19" r:id="rId14" location=":~:text=submit50%20cs50/problems/2020/x/plurality" xr:uid="{5230DBC5-C66B-441B-B6F9-95CD3B06940E}"/>
     <hyperlink ref="J24" r:id="rId15" xr:uid="{AA5BA877-123B-4E04-8D72-771B0C7768E8}"/>
     <hyperlink ref="J34" r:id="rId16" xr:uid="{06871212-F124-4C14-B56F-C0086C009F36}"/>
+    <hyperlink ref="L9" r:id="rId17" xr:uid="{6F9584E4-43BD-48AF-8151-3A8EF1DCD881}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF167FC-D57B-444C-91DD-D551598185F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E42333-24D7-418B-A50D-67546C119DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,16 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,26 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,7 +934,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,168 +1464,168 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1710,10 +1710,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1753,168 +1753,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="20">
+      <c r="L14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1956,10 +1958,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2001,10 +2003,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2044,10 +2046,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2087,125 +2089,125 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2247,10 +2249,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2290,10 +2292,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2333,166 +2335,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2538,10 +2540,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2581,10 +2583,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2624,168 +2626,168 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2827,10 +2829,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2870,10 +2872,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2913,10 +2915,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2956,125 +2958,125 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3114,10 +3116,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3157,10 +3159,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3200,194 +3202,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3412,6 +3270,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3431,9 +3433,10 @@
     <hyperlink ref="J24" r:id="rId15" xr:uid="{AA5BA877-123B-4E04-8D72-771B0C7768E8}"/>
     <hyperlink ref="J34" r:id="rId16" xr:uid="{06871212-F124-4C14-B56F-C0086C009F36}"/>
     <hyperlink ref="L9" r:id="rId17" xr:uid="{6F9584E4-43BD-48AF-8151-3A8EF1DCD881}"/>
+    <hyperlink ref="L14" r:id="rId18" xr:uid="{A0C6C96F-F400-4CE3-AD12-050617E5A19B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E42333-24D7-418B-A50D-67546C119DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5590A-70AE-4682-8C48-E34FEFB9C3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,19 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,23 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,168 +1464,168 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1710,10 +1710,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1753,170 +1753,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1958,10 +1958,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2003,10 +2003,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2046,10 +2046,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2089,125 +2089,127 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="19">
+      <c r="L19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2249,10 +2251,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2292,10 +2294,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2335,166 +2337,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2540,10 +2542,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2583,10 +2585,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2626,168 +2628,168 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2829,10 +2831,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2872,10 +2874,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2915,10 +2917,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2958,125 +2960,125 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3116,10 +3118,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3159,10 +3161,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3202,50 +3204,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3270,150 +3416,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3434,9 +3436,10 @@
     <hyperlink ref="J34" r:id="rId16" xr:uid="{06871212-F124-4C14-B56F-C0086C009F36}"/>
     <hyperlink ref="L9" r:id="rId17" xr:uid="{6F9584E4-43BD-48AF-8151-3A8EF1DCD881}"/>
     <hyperlink ref="L14" r:id="rId18" xr:uid="{A0C6C96F-F400-4CE3-AD12-050617E5A19B}"/>
+    <hyperlink ref="L19" r:id="rId19" xr:uid="{8B900481-2813-4581-8515-84E04BD1BE20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5590A-70AE-4682-8C48-E34FEFB9C3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB472112-F248-4920-9AB6-BCBEE209EC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,16 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,26 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,168 +1464,168 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1710,10 +1710,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1753,170 +1753,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1958,10 +1958,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2003,10 +2003,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2046,10 +2046,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2089,127 +2089,127 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2251,10 +2251,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2294,10 +2294,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2337,166 +2337,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2542,10 +2542,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2585,10 +2585,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2628,168 +2628,170 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="20">
+      <c r="L29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2831,10 +2833,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2874,10 +2876,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2917,10 +2919,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2960,125 +2962,125 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3118,10 +3120,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3161,10 +3163,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3204,194 +3206,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3416,6 +3274,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3437,9 +3439,10 @@
     <hyperlink ref="L9" r:id="rId17" xr:uid="{6F9584E4-43BD-48AF-8151-3A8EF1DCD881}"/>
     <hyperlink ref="L14" r:id="rId18" xr:uid="{A0C6C96F-F400-4CE3-AD12-050617E5A19B}"/>
     <hyperlink ref="L19" r:id="rId19" xr:uid="{8B900481-2813-4581-8515-84E04BD1BE20}"/>
+    <hyperlink ref="L29" r:id="rId20" xr:uid="{DAF6A822-866F-4A95-A74C-7B42FC4F5ED9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB472112-F248-4920-9AB6-BCBEE209EC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B749C34-F6F9-4309-B1AC-94DDAB8D7767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,19 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,23 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,168 +1464,168 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1710,10 +1710,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1753,170 +1753,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1958,10 +1958,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2003,10 +2003,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2046,10 +2046,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2089,127 +2089,127 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2251,10 +2251,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2294,10 +2294,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2337,166 +2337,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2542,10 +2542,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2585,10 +2585,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2628,170 +2628,170 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2833,10 +2833,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2876,10 +2876,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2919,10 +2919,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2962,125 +2962,127 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="19">
+      <c r="L34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3120,10 +3122,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3163,10 +3165,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3206,50 +3208,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3274,150 +3420,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3440,9 +3442,10 @@
     <hyperlink ref="L14" r:id="rId18" xr:uid="{A0C6C96F-F400-4CE3-AD12-050617E5A19B}"/>
     <hyperlink ref="L19" r:id="rId19" xr:uid="{8B900481-2813-4581-8515-84E04BD1BE20}"/>
     <hyperlink ref="L29" r:id="rId20" xr:uid="{DAF6A822-866F-4A95-A74C-7B42FC4F5ED9}"/>
+    <hyperlink ref="L34" r:id="rId21" xr:uid="{826409F4-B9E5-448A-92CD-9A01D5E7E2F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B749C34-F6F9-4309-B1AC-94DDAB8D7767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD89892-460C-49CF-9425-81A3B85CC3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>HTML</t>
   </si>
@@ -574,16 +574,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,26 +601,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +931,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +987,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1214,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1376,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1421,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,168 +1464,170 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="17">
+      <c r="N9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1667,10 +1669,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1710,10 +1712,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1753,170 +1755,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1958,10 +1960,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2003,10 +2005,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2046,10 +2048,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2089,127 +2091,127 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2251,10 +2253,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2294,10 +2296,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2337,166 +2339,166 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="6"/>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2542,10 +2544,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2585,10 +2587,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2628,170 +2630,170 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2833,10 +2835,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2876,10 +2878,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2919,10 +2921,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2962,127 +2964,127 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3122,10 +3124,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3165,10 +3167,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3208,194 +3210,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3420,6 +3278,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3443,9 +3445,10 @@
     <hyperlink ref="L19" r:id="rId19" xr:uid="{8B900481-2813-4581-8515-84E04BD1BE20}"/>
     <hyperlink ref="L29" r:id="rId20" xr:uid="{DAF6A822-866F-4A95-A74C-7B42FC4F5ED9}"/>
     <hyperlink ref="L34" r:id="rId21" xr:uid="{826409F4-B9E5-448A-92CD-9A01D5E7E2F7}"/>
+    <hyperlink ref="N9" r:id="rId22" xr:uid="{42917CEB-9A7D-42CF-9203-3B3AFE31F13B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD89892-460C-49CF-9425-81A3B85CC3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D568F9F2-1517-4876-911C-C8290A0AE9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>HTML</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>CS50X: lecture 3 - pset3 Tidemann (WIP)</t>
+  </si>
+  <si>
+    <t>CS50X: lecture 3 - pset3 Tidemann</t>
   </si>
 </sst>
 </file>
@@ -574,19 +577,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,23 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +934,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,111 +990,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1214,125 +1217,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1376,12 +1379,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1421,10 +1424,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1464,170 +1467,170 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1669,10 +1672,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1712,10 +1715,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1755,170 +1758,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1960,10 +1963,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2005,10 +2008,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2048,10 +2051,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2091,127 +2094,129 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="19">
+      <c r="N19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2253,10 +2258,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2296,10 +2301,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2339,166 +2344,168 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
-    <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="19">
+      <c r="N24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2513,7 +2520,9 @@
       <c r="K25" s="18"/>
       <c r="L25" s="7"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="O25" s="18"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="18"/>
@@ -2544,10 +2553,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2587,10 +2596,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2630,170 +2639,172 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="17">
+      <c r="N29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2804,7 +2815,6 @@
       <c r="K30" s="18"/>
       <c r="L30" s="7"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="7"/>
       <c r="O30" s="18"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="18"/>
@@ -2835,10 +2845,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2878,10 +2888,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2921,10 +2931,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2964,127 +2974,127 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3124,10 +3134,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3167,10 +3177,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3210,50 +3220,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3278,150 +3432,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3446,9 +3456,13 @@
     <hyperlink ref="L29" r:id="rId20" xr:uid="{DAF6A822-866F-4A95-A74C-7B42FC4F5ED9}"/>
     <hyperlink ref="L34" r:id="rId21" xr:uid="{826409F4-B9E5-448A-92CD-9A01D5E7E2F7}"/>
     <hyperlink ref="N9" r:id="rId22" xr:uid="{42917CEB-9A7D-42CF-9203-3B3AFE31F13B}"/>
+    <hyperlink ref="N25" r:id="rId23" display="CS50X: lecture 3 - pset3 Tidemann (WIP)" xr:uid="{113C9ED2-7634-425A-9F4A-83B932785199}"/>
+    <hyperlink ref="N19" r:id="rId24" xr:uid="{D698E884-E9D0-4FE4-9188-C83380E0A078}"/>
+    <hyperlink ref="N29" r:id="rId25" xr:uid="{78D8A0C2-0F0E-41EB-A6D1-E6BCB188171C}"/>
+    <hyperlink ref="N24" r:id="rId26" xr:uid="{C357A3C6-7054-4BE0-8C84-32425E762FDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D568F9F2-1517-4876-911C-C8290A0AE9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558743F-6404-400F-9790-74029FDBBACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>HTML</t>
   </si>
@@ -577,16 +577,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,26 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +934,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,111 +990,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1217,125 +1217,125 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1379,12 +1379,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1424,10 +1424,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1467,170 +1467,170 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1672,10 +1672,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1715,10 +1715,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1758,170 +1758,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1963,10 +1963,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2008,10 +2008,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2051,10 +2051,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2094,129 +2094,129 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2301,10 +2301,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2344,168 +2344,168 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2553,10 +2553,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2596,10 +2596,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2639,172 +2639,172 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2845,10 +2845,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2888,10 +2888,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2931,10 +2931,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2974,127 +2974,129 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="17">
+      <c r="N34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3134,10 +3136,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3177,10 +3179,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3220,194 +3222,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3432,6 +3290,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3460,9 +3462,10 @@
     <hyperlink ref="N19" r:id="rId24" xr:uid="{D698E884-E9D0-4FE4-9188-C83380E0A078}"/>
     <hyperlink ref="N29" r:id="rId25" xr:uid="{78D8A0C2-0F0E-41EB-A6D1-E6BCB188171C}"/>
     <hyperlink ref="N24" r:id="rId26" xr:uid="{C357A3C6-7054-4BE0-8C84-32425E762FDB}"/>
+    <hyperlink ref="N34" r:id="rId27" xr:uid="{B432DC55-C7EB-4E88-9516-2515CF7F32BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9558743F-6404-400F-9790-74029FDBBACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3CDD8-1627-42CF-869D-DCFECFCE8053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>HTML</t>
   </si>
@@ -577,19 +577,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,23 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +934,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,111 +990,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1217,125 +1217,127 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1379,12 +1381,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1424,10 +1426,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1467,170 +1469,170 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1672,10 +1674,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1715,10 +1717,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1758,170 +1760,170 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1963,10 +1965,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2008,10 +2010,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2051,10 +2053,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2094,129 +2096,129 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2258,10 +2260,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2301,10 +2303,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2344,168 +2346,168 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2553,10 +2555,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2596,10 +2598,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2639,172 +2641,172 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2845,10 +2847,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2888,10 +2890,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2931,10 +2933,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2974,129 +2976,129 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3136,10 +3138,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3179,10 +3181,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3222,50 +3224,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3290,150 +3436,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3463,9 +3465,10 @@
     <hyperlink ref="N29" r:id="rId25" xr:uid="{78D8A0C2-0F0E-41EB-A6D1-E6BCB188171C}"/>
     <hyperlink ref="N24" r:id="rId26" xr:uid="{C357A3C6-7054-4BE0-8C84-32425E762FDB}"/>
     <hyperlink ref="N34" r:id="rId27" xr:uid="{B432DC55-C7EB-4E88-9516-2515CF7F32BD}"/>
+    <hyperlink ref="P4" r:id="rId28" xr:uid="{9352D43E-C1CA-47CB-88CA-8100AEFA7792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3CDD8-1627-42CF-869D-DCFECFCE8053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA533A-2AD2-4A32-A508-1F03355EDFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>HTML</t>
   </si>
@@ -577,16 +577,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,26 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +934,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,111 +990,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>34</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="25"/>
+      <c r="G2" s="24">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="25"/>
+      <c r="I2" s="24">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21">
+      <c r="N2" s="25"/>
+      <c r="O2" s="24">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="24">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21">
+      <c r="R2" s="25"/>
+      <c r="S2" s="24">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="T2" s="25"/>
+      <c r="U2" s="24">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="21">
+      <c r="V2" s="25"/>
+      <c r="W2" s="24">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="21">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="21">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="24">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="21">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="24">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="21">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="24">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="21">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="24">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="21">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="24">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="21">
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="24">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="21">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="24">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="22"/>
+      <c r="AP2" s="25"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1217,127 +1217,127 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="20">
+      <c r="S4" s="17">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="20">
+      <c r="U4" s="17">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="20">
+      <c r="W4" s="17">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20">
+      <c r="Y4" s="17">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="20">
+      <c r="AA4" s="17">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="20">
+      <c r="AC4" s="17">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="17">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="20">
+      <c r="AG4" s="17">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="20">
+      <c r="AI4" s="17">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="20">
+      <c r="AK4" s="17">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="20">
+      <c r="AM4" s="17">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="20">
+      <c r="AO4" s="17">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1381,12 +1381,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1426,10 +1426,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1469,170 +1469,172 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="19"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="19"/>
+      <c r="W8" s="20"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="20"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="19"/>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="20"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="20"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="20"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="19"/>
+      <c r="AO8" s="20"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <f>O4+1</f>
         <v>44103</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="17">
+      <c r="P9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="19">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="17">
+      <c r="AA9" s="19">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="19">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="17">
+      <c r="AE9" s="19">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="17">
+      <c r="AG9" s="19">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="17">
+      <c r="AI9" s="19">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="19">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="17">
+      <c r="AM9" s="19">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="17">
+      <c r="AO9" s="19">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1674,10 +1676,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1717,10 +1719,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1760,170 +1762,172 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="19"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="19"/>
+      <c r="W13" s="20"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="20"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="19"/>
+      <c r="AM13" s="20"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="19"/>
+      <c r="AO13" s="20"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <f>O9+1</f>
         <v>44104</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="17">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="20">
+      <c r="S14" s="17">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="20">
+      <c r="W14" s="17">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20">
+      <c r="Y14" s="17">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="20">
+      <c r="AA14" s="17">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="20">
+      <c r="AC14" s="17">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="17">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="20">
+      <c r="AG14" s="17">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="20">
+      <c r="AI14" s="17">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="20">
+      <c r="AK14" s="17">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="20">
+      <c r="AM14" s="17">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="20">
+      <c r="AO14" s="17">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1965,10 +1969,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2010,10 +2014,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2053,10 +2057,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2096,129 +2100,129 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="19">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="19">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="19">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="19">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="17">
+      <c r="Q19" s="19">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="17">
+      <c r="S19" s="19">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="U19" s="19">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="17">
+      <c r="W19" s="19">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="17">
+      <c r="Y19" s="19">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="17">
+      <c r="AA19" s="19">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="19">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="17">
+      <c r="AE19" s="19">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="17">
+      <c r="AG19" s="19">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="17">
+      <c r="AI19" s="19">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17">
+      <c r="AK19" s="19">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="17">
+      <c r="AM19" s="19">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="17">
+      <c r="AO19" s="19">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2260,10 +2264,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2303,10 +2307,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2346,168 +2350,168 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="19"/>
+      <c r="U23" s="20"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="19"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="19"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="20"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="19"/>
+      <c r="AG23" s="20"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="20"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="19"/>
+      <c r="AK23" s="20"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="19"/>
+      <c r="AM23" s="20"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="20"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="21">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="19">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="19">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="19">
         <f>O19+1</f>
         <v>44106</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="17">
+      <c r="S24" s="19">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="17">
+      <c r="W24" s="19">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="17">
+      <c r="AA24" s="19">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="19">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="17">
+      <c r="AE24" s="19">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="17">
+      <c r="AG24" s="19">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="17">
+      <c r="AI24" s="19">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17">
+      <c r="AK24" s="19">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="17">
+      <c r="AM24" s="19">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="17">
+      <c r="AO24" s="19">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2555,10 +2559,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2598,10 +2602,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2641,172 +2645,172 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="20"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="19"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="19"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="20"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="19"/>
+      <c r="AE28" s="20"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="19"/>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="20"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="19"/>
+      <c r="AK28" s="20"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="19"/>
+      <c r="AM28" s="20"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="19"/>
+      <c r="AO28" s="20"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="21">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="21">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="17">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="17">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="17">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="17">
         <f>O24+1</f>
         <v>44107</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20">
+      <c r="Q29" s="17">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="20">
+      <c r="S29" s="17">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="20">
+      <c r="U29" s="17">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="20">
+      <c r="W29" s="17">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20">
+      <c r="Y29" s="17">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="20">
+      <c r="AA29" s="17">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="17">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="20">
+      <c r="AE29" s="17">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="20">
+      <c r="AG29" s="17">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="20">
+      <c r="AI29" s="17">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="20">
+      <c r="AK29" s="17">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="20">
+      <c r="AM29" s="17">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="20">
+      <c r="AO29" s="17">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2847,10 +2851,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2890,10 +2894,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2933,10 +2937,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="29"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2976,129 +2980,129 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="21">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="21">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="17">
+      <c r="AA34" s="19">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="19">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="17">
+      <c r="AE34" s="19">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="17">
+      <c r="AG34" s="19">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="17">
+      <c r="AI34" s="19">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17">
+      <c r="AK34" s="19">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="17">
+      <c r="AM34" s="19">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="17">
+      <c r="AO34" s="19">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3138,10 +3142,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3181,10 +3185,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3224,194 +3228,50 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="19"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="19"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="19"/>
+      <c r="U38" s="20"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="19"/>
+      <c r="W38" s="20"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="19"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="19"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="20"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="20"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="19"/>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="19"/>
+      <c r="AI38" s="20"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="20"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="19"/>
+      <c r="AM38" s="20"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="19"/>
+      <c r="AO38" s="20"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3436,6 +3296,150 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3466,9 +3470,11 @@
     <hyperlink ref="N24" r:id="rId26" xr:uid="{C357A3C6-7054-4BE0-8C84-32425E762FDB}"/>
     <hyperlink ref="N34" r:id="rId27" xr:uid="{B432DC55-C7EB-4E88-9516-2515CF7F32BD}"/>
     <hyperlink ref="P4" r:id="rId28" xr:uid="{9352D43E-C1CA-47CB-88CA-8100AEFA7792}"/>
+    <hyperlink ref="P9" r:id="rId29" xr:uid="{73648FB2-7F0E-4B34-9281-802716A2DE73}"/>
+    <hyperlink ref="P14" r:id="rId30" xr:uid="{CD4DD884-27F3-4668-A4C2-0C115B43B4DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/Learning plan.xlsx
+++ b/Learning plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiia\Google Drive\GitClones\WebDevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA533A-2AD2-4A32-A508-1F03355EDFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41559C7B-A045-41D2-9B99-1F71E483916B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="873" xr2:uid="{A789072D-D6D9-479B-AE6F-543CF5D9F012}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>HTML</t>
   </si>
@@ -577,19 +577,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,23 +604,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +934,10 @@
   <dimension ref="B1:AP38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,111 +990,111 @@
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>34</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21">
         <f>C2+1</f>
         <v>35</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21">
         <f>E2+1</f>
         <v>36</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21">
         <f>G2+1</f>
         <v>37</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24">
+      <c r="J2" s="22"/>
+      <c r="K2" s="21">
         <f t="shared" ref="K2" si="0">I2+1</f>
         <v>38</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24">
+      <c r="L2" s="22"/>
+      <c r="M2" s="21">
         <f t="shared" ref="M2" si="1">K2+1</f>
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="N2" s="22"/>
+      <c r="O2" s="21">
         <f t="shared" ref="O2" si="2">M2+1</f>
         <v>40</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
         <f t="shared" ref="Q2" si="3">O2+1</f>
         <v>41</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24">
+      <c r="R2" s="22"/>
+      <c r="S2" s="21">
         <f t="shared" ref="S2" si="4">Q2+1</f>
         <v>42</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="24">
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <f t="shared" ref="U2" si="5">S2+1</f>
         <v>43</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="24">
+      <c r="V2" s="22"/>
+      <c r="W2" s="21">
         <f t="shared" ref="W2" si="6">U2+1</f>
         <v>44</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="21">
         <f t="shared" ref="Y2" si="7">W2+1</f>
         <v>45</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="24">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="21">
         <f t="shared" ref="AA2" si="8">Y2+1</f>
         <v>46</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="21">
         <f t="shared" ref="AC2" si="9">AA2+1</f>
         <v>47</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <f t="shared" ref="AE2" si="10">AC2+1</f>
         <v>48</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="24">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <f t="shared" ref="AG2" si="11">AE2+1</f>
         <v>49</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="24">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="21">
         <f t="shared" ref="AI2" si="12">AG2+1</f>
         <v>50</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="24">
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="21">
         <f t="shared" ref="AK2" si="13">AI2+1</f>
         <v>51</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="24">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="21">
         <f t="shared" ref="AM2" si="14">AK2+1</f>
         <v>52</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="24">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="21">
         <f t="shared" ref="AO2" si="15">AM2+1</f>
         <v>53</v>
       </c>
-      <c r="AP2" s="25"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1217,127 +1217,127 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>DATE(2020,8,17)</f>
         <v>44060</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <f>C34+1</f>
         <v>44067</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="20">
         <f>E34+1</f>
         <v>44074</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <f>G34+1</f>
         <v>44081</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <f>I34+1</f>
         <v>44088</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="17">
+      <c r="M4" s="20">
         <f>K34+1</f>
         <v>44095</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f>M34+1</f>
         <v>44102</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="20">
         <f>O34+1</f>
         <v>44109</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="17">
+      <c r="S4" s="20">
         <f>Q34+1</f>
         <v>44116</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="17">
+      <c r="U4" s="20">
         <f>S34+1</f>
         <v>44123</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="17">
+      <c r="W4" s="20">
         <f>U34+1</f>
         <v>44130</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Y4" s="17">
+      <c r="Y4" s="20">
         <f>W34+1</f>
         <v>44137</v>
       </c>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="17">
+      <c r="AA4" s="20">
         <f>Y34+1</f>
         <v>44144</v>
       </c>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="20">
         <f>AA34+1</f>
         <v>44151</v>
       </c>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="17">
+      <c r="AE4" s="20">
         <f>AC34+1</f>
         <v>44158</v>
       </c>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="17">
+      <c r="AG4" s="20">
         <f>AE34+1</f>
         <v>44165</v>
       </c>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="17">
+      <c r="AI4" s="20">
         <f>AG34+1</f>
         <v>44172</v>
       </c>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="17">
+      <c r="AK4" s="20">
         <f>AI34+1</f>
         <v>44179</v>
       </c>
       <c r="AL4" s="6"/>
-      <c r="AM4" s="17">
+      <c r="AM4" s="20">
         <f>AK34+1</f>
         <v>44186</v>
       </c>
       <c r="AN4" s="6"/>
-      <c r="AO4" s="17">
+      <c r="AO4" s="20">
         <f>AM34+1</f>
         <v>44193</v>
       </c>
       <c r="AP4" s="6"/>
     </row>
     <row r="5" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1381,12 +1381,12 @@
       <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="9"/>
       <c r="G6" s="18"/>
       <c r="H6" s="7"/>
@@ -1426,10 +1426,10 @@
       <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="9"/>
       <c r="G7" s="18"/>
       <c r="H7" s="7"/>
@@ -1469,172 +1469,172 @@
       <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="20"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="20"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="20"/>
+      <c r="AC8" s="19"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="20"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="20"/>
+      <c r="AG8" s="19"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="20"/>
+      <c r="AK8" s="19"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="19"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="20"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="8"/>
     </row>
     <row r="9" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <f>C4+1</f>
         <v>44061</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <f>E4+1</f>
         <v>44068</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G4+1</f>
         <v>44075</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>I4+1</f>
         <v>44082</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <f>K4+1</f>
         <v>44089</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <f>M4+1</f>
         <v>44096</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f>O4+1</f>
         <v>44103</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f>Q4+1</f>
         <v>44110</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="19">
+      <c r="S9" s="17">
         <f>S4+1</f>
         <v>44117</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f>U4+1</f>
         <v>44124</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f>W4+1</f>
         <v>44131</v>
       </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="19">
+      <c r="Y9" s="17">
         <f>Y4+1</f>
         <v>44138</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="19">
+      <c r="AA9" s="17">
         <f>AA4+1</f>
         <v>44145</v>
       </c>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f>AC4+1</f>
         <v>44152</v>
       </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="19">
+      <c r="AE9" s="17">
         <f>AE4+1</f>
         <v>44159</v>
       </c>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="19">
+      <c r="AG9" s="17">
         <f>AG4+1</f>
         <v>44166</v>
       </c>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="19">
+      <c r="AI9" s="17">
         <f>AI4+1</f>
         <v>44173</v>
       </c>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="19">
+      <c r="AK9" s="17">
         <f>AK4+1</f>
         <v>44180</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="19">
+      <c r="AM9" s="17">
         <f>AM4+1</f>
         <v>44187</v>
       </c>
       <c r="AN9" s="6"/>
-      <c r="AO9" s="19">
+      <c r="AO9" s="17">
         <f>AO4+1</f>
         <v>44194</v>
       </c>
       <c r="AP9" s="6"/>
     </row>
     <row r="10" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
@@ -1676,10 +1676,10 @@
       <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="18"/>
       <c r="H11" s="7"/>
@@ -1719,10 +1719,10 @@
       <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="9"/>
       <c r="G12" s="18"/>
       <c r="H12" s="7"/>
@@ -1762,172 +1762,172 @@
       <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="20"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="20"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="20"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="20"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="20"/>
+      <c r="AK13" s="19"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="19"/>
       <c r="AN13" s="8"/>
-      <c r="AO13" s="20"/>
+      <c r="AO13" s="19"/>
       <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="27">
         <f>C9+1</f>
         <v>44062</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="27">
         <f>E9+1</f>
         <v>44069</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <f>G9+1</f>
         <v>44076</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f>I9+1</f>
         <v>44083</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>K9+1</f>
         <v>44090</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="20">
         <f>M9+1</f>
         <v>44097</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="17">
+      <c r="O14" s="20">
         <f>O9+1</f>
         <v>44104</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="20">
         <f>Q9+1</f>
         <v>44111</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
+      <c r="S14" s="20">
         <f>S9+1</f>
         <v>44118</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="U14" s="20">
         <f>U9+1</f>
         <v>44125</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="17">
+      <c r="W14" s="20">
         <f>W9+1</f>
         <v>44132</v>
       </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="17">
+      <c r="Y14" s="20">
         <f>Y9+1</f>
         <v>44139</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="17">
+      <c r="AA14" s="20">
         <f>AA9+1</f>
         <v>44146</v>
       </c>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="20">
         <f>AC9+1</f>
         <v>44153</v>
       </c>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="17">
+      <c r="AE14" s="20">
         <f>AE9+1</f>
         <v>44160</v>
       </c>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="17">
+      <c r="AG14" s="20">
         <f>AG9+1</f>
         <v>44167</v>
       </c>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="17">
+      <c r="AI14" s="20">
         <f>AI9+1</f>
         <v>44174</v>
       </c>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17">
+      <c r="AK14" s="20">
         <f>AK9+1</f>
         <v>44181</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="17">
+      <c r="AM14" s="20">
         <f>AM9+1</f>
         <v>44188</v>
       </c>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="17">
+      <c r="AO14" s="20">
         <f>AO9+1</f>
         <v>44195</v>
       </c>
       <c r="AP14" s="6"/>
     </row>
     <row r="15" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="18"/>
       <c r="H15" s="9" t="s">
@@ -1969,10 +1969,10 @@
       <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
@@ -2014,10 +2014,10 @@
       <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="18"/>
       <c r="H17" s="7"/>
@@ -2057,10 +2057,10 @@
       <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
       <c r="H18" s="8"/>
@@ -2100,129 +2100,129 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="27">
         <f>C14+1</f>
         <v>44063</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f>E14+1</f>
         <v>44070</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <f>G14+1</f>
         <v>44077</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <f>I14+1</f>
         <v>44084</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>K14+1</f>
         <v>44091</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <f>M14+1</f>
         <v>44098</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <f>O14+1</f>
         <v>44105</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <f>Q14+1</f>
         <v>44112</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <f>S14+1</f>
         <v>44119</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <f>U14+1</f>
         <v>44126</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <f>W14+1</f>
         <v>44133</v>
       </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <f>Y14+1</f>
         <v>44140</v>
       </c>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <f>AA14+1</f>
         <v>44147</v>
       </c>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <f>AC14+1</f>
         <v>44154</v>
       </c>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <f>AE14+1</f>
         <v>44161</v>
       </c>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <f>AG14+1</f>
         <v>44168</v>
       </c>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <f>AI14+1</f>
         <v>44175</v>
       </c>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="19">
+      <c r="AK19" s="17">
         <f>AK14+1</f>
         <v>44182</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="19">
+      <c r="AM19" s="17">
         <f>AM14+1</f>
         <v>44189</v>
       </c>
       <c r="AN19" s="6"/>
-      <c r="AO19" s="19">
+      <c r="AO19" s="17">
         <f>AO14+1</f>
         <v>44196</v>
       </c>
       <c r="AP19" s="6"/>
     </row>
     <row r="20" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9" t="s">
         <v>65</v>
       </c>
@@ -2264,10 +2264,10 @@
       <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
       <c r="G21" s="18"/>
       <c r="H21" s="7"/>
@@ -2307,10 +2307,10 @@
       <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
       <c r="G22" s="18"/>
       <c r="H22" s="7"/>
@@ -2350,168 +2350,170 @@
       <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="20"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="20"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="20"/>
+      <c r="AC23" s="19"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="20"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="8"/>
-      <c r="AG23" s="20"/>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="19"/>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="20"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="19"/>
       <c r="AN23" s="8"/>
-      <c r="AO23" s="20"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="8"/>
     </row>
     <row r="24" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="27">
         <f>C19+1</f>
         <v>44064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="27">
         <f>E19+1</f>
         <v>44071</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <f>G19+1</f>
         <v>44078</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="17">
         <f>I19+1</f>
         <v>44085</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="17">
         <f>K19+1</f>
         <v>44092</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="19">
+      <c r="M24" s="17">
         <f>M19+1</f>
         <v>44099</v>
       </c>
       <c r="N24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="17">
         <f>O19+1</f>
         <v>44106</v>
       </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="19">
+      <c r="P24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="17">
         <f>Q19+1</f>
         <v>44113</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="19">
+      <c r="S24" s="17">
         <f>S19+1</f>
         <v>44120</v>
       </c>
       <c r="T24" s="6"/>
-      <c r="U24" s="19">
+      <c r="U24" s="17">
         <f>U19+1</f>
         <v>44127</v>
       </c>
       <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="W24" s="17">
         <f>W19+1</f>
         <v>44134</v>
       </c>
       <c r="X24" s="6"/>
-      <c r="Y24" s="19">
+      <c r="Y24" s="17">
         <f>Y19+1</f>
         <v>44141</v>
       </c>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="19">
+      <c r="AA24" s="17">
         <f>AA19+1</f>
         <v>44148</v>
       </c>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="19">
+      <c r="AC24" s="17">
         <f>AC19+1</f>
         <v>44155</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="19">
+      <c r="AE24" s="17">
         <f>AE19+1</f>
         <v>44162</v>
       </c>
       <c r="AF24" s="6"/>
-      <c r="AG24" s="19">
+      <c r="AG24" s="17">
         <f>AG19+1</f>
         <v>44169</v>
       </c>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="19">
+      <c r="AI24" s="17">
         <f>AI19+1</f>
         <v>44176</v>
       </c>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="19">
+      <c r="AK24" s="17">
         <f>AK19+1</f>
         <v>44183</v>
       </c>
       <c r="AL24" s="6"/>
-      <c r="AM24" s="19">
+      <c r="AM24" s="17">
         <f>AM19+1</f>
         <v>44190</v>
       </c>
       <c r="AN24" s="6"/>
-      <c r="AO24" s="19">
+      <c r="AO24" s="17">
         <f>AO19+1</f>
         <v>44197</v>
       </c>
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="14" t="s">
         <v>67</v>
       </c>
@@ -2559,10 +2561,10 @@
       <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
       <c r="G26" s="18"/>
       <c r="H26" s="7"/>
@@ -2602,10 +2604,10 @@
       <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
       <c r="H27" s="7"/>
@@ -2645,172 +2647,174 @@
       <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="20"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="19"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="20"/>
+      <c r="Y28" s="19"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="20"/>
+      <c r="AA28" s="19"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="20"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="20"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="8"/>
-      <c r="AG28" s="20"/>
+      <c r="AG28" s="19"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="20"/>
+      <c r="AK28" s="19"/>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="19"/>
       <c r="AN28" s="8"/>
-      <c r="AO28" s="20"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="8"/>
     </row>
     <row r="29" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="27">
         <f>C24+1</f>
         <v>44065</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="27">
         <f>E24+1</f>
         <v>44072</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="20">
         <f>G24+1</f>
         <v>44079</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="20">
         <f>I24+1</f>
         <v>44086</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="20">
         <f>K24+1</f>
         <v>44093</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="20">
         <f>M24+1</f>
         <v>44100</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="20">
         <f>O24+1</f>
         <v>44107</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="17">
+      <c r="P29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="20">
         <f>Q24+1</f>
         <v>44114</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="17">
+      <c r="S29" s="20">
         <f>S24+1</f>
         <v>44121</v>
       </c>
       <c r="T29" s="6"/>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <f>U24+1</f>
         <v>44128</v>
       </c>
       <c r="V29" s="6"/>
-      <c r="W29" s="17">
+      <c r="W29" s="20">
         <f>W24+1</f>
         <v>44135</v>
       </c>
       <c r="X29" s="6"/>
-      <c r="Y29" s="17">
+      <c r="Y29" s="20">
         <f>Y24+1</f>
         <v>44142</v>
       </c>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="17">
+      <c r="AA29" s="20">
         <f>AA24+1</f>
         <v>44149</v>
       </c>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="20">
         <f>AC24+1</f>
         <v>44156</v>
       </c>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="17">
+      <c r="AE29" s="20">
         <f>AE24+1</f>
         <v>44163</v>
       </c>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="17">
+      <c r="AG29" s="20">
         <f>AG24+1</f>
         <v>44170</v>
       </c>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="17">
+      <c r="AI29" s="20">
         <f>AI24+1</f>
         <v>44177</v>
       </c>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17">
+      <c r="AK29" s="20">
         <f>AK24+1</f>
         <v>44184</v>
       </c>
       <c r="AL29" s="6"/>
-      <c r="AM29" s="17">
+      <c r="AM29" s="20">
         <f>AM24+1</f>
         <v>44191</v>
       </c>
       <c r="AN29" s="6"/>
-      <c r="AO29" s="17">
+      <c r="AO29" s="20">
         <f>AO24+1</f>
         <v>44198</v>
       </c>
       <c r="AP29" s="6"/>
     </row>
     <row r="30" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="14" t="s">
         <v>69</v>
       </c>
@@ -2851,10 +2855,10 @@
       <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
       <c r="G31" s="18"/>
       <c r="H31" s="7"/>
@@ -2894,10 +2898,10 @@
       <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
       <c r="G32" s="18"/>
       <c r="H32" s="7"/>
@@ -2937,10 +2941,10 @@
       <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
       <c r="H33" s="8"/>
@@ -2980,129 +2984,129 @@
       <c r="AP33" s="8"/>
     </row>
     <row r="34" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="27">
         <f>C29+1</f>
         <v>44066</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="27">
         <f>E29+1</f>
         <v>44073</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <f>G29+1</f>
         <v>44080</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="17">
         <f>I29+1</f>
         <v>44087</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <f>K29+1</f>
         <v>44094</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="17">
         <f>M29+1</f>
         <v>44101</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="17">
         <f>O29+1</f>
         <v>44108</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="17">
         <f>Q29+1</f>
         <v>44115</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="S34" s="19">
+      <c r="S34" s="17">
         <f>S29+1</f>
         <v>44122</v>
       </c>
       <c r="T34" s="6"/>
-      <c r="U34" s="19">
+      <c r="U34" s="17">
         <f>U29+1</f>
         <v>44129</v>
       </c>
       <c r="V34" s="6"/>
-      <c r="W34" s="19">
+      <c r="W34" s="17">
         <f>W29+1</f>
         <v>44136</v>
       </c>
       <c r="X34" s="6"/>
-      <c r="Y34" s="19">
+      <c r="Y34" s="17">
         <f>Y29+1</f>
         <v>44143</v>
       </c>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="19">
+      <c r="AA34" s="17">
         <f>AA29+1</f>
         <v>44150</v>
       </c>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="19">
+      <c r="AC34" s="17">
         <f>AC29+1</f>
         <v>44157</v>
       </c>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="19">
+      <c r="AE34" s="17">
         <f>AE29+1</f>
         <v>44164</v>
       </c>
       <c r="AF34" s="6"/>
-      <c r="AG34" s="19">
+      <c r="AG34" s="17">
         <f>AG29+1</f>
         <v>44171</v>
       </c>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="19">
+      <c r="AI34" s="17">
         <f>AI29+1</f>
         <v>44178</v>
       </c>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="19">
+      <c r="AK34" s="17">
         <f>AK29+1</f>
         <v>44185</v>
       </c>
       <c r="AL34" s="6"/>
-      <c r="AM34" s="19">
+      <c r="AM34" s="17">
         <f>AM29+1</f>
         <v>44192</v>
       </c>
       <c r="AN34" s="6"/>
-      <c r="AO34" s="19">
+      <c r="AO34" s="17">
         <f>AO29+1</f>
         <v>44199</v>
       </c>
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
       <c r="G35" s="18"/>
       <c r="H35" s="7"/>
@@ -3142,10 +3146,10 @@
       <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="9"/>
       <c r="G36" s="18"/>
       <c r="H36" s="7"/>
@@ -3185,10 +3189,10 @@
       <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="2:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="9"/>
       <c r="G37" s="18"/>
       <c r="H37" s="7"/>
@@ -3228,50 +3232,194 @@
       <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="2:42" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="20"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="19"/>
       <c r="X38" s="8"/>
-      <c r="Y38" s="20"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="19"/>
       <c r="AB38" s="8"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="20"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="8"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="19"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="20"/>
+      <c r="AK38" s="19"/>
       <c r="AL38" s="8"/>
-      <c r="AM38" s="20"/>
+      <c r="AM38" s="19"/>
       <c r="AN38" s="8"/>
-      <c r="AO38" s="20"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="U24:U28"/>
+    <mergeCell ref="U29:U33"/>
+    <mergeCell ref="U34:U38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="W24:W28"/>
+    <mergeCell ref="W29:W33"/>
+    <mergeCell ref="W34:W38"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="U9:U13"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="Y24:Y28"/>
+    <mergeCell ref="Y29:Y33"/>
+    <mergeCell ref="Y34:Y38"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="AA24:AA28"/>
+    <mergeCell ref="AA29:AA33"/>
+    <mergeCell ref="AA34:AA38"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y4:Y8"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AC24:AC28"/>
+    <mergeCell ref="AC29:AC33"/>
+    <mergeCell ref="AC34:AC38"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="AE9:AE13"/>
+    <mergeCell ref="AE14:AE18"/>
+    <mergeCell ref="AE19:AE23"/>
+    <mergeCell ref="AE24:AE28"/>
+    <mergeCell ref="AE29:AE33"/>
+    <mergeCell ref="AE34:AE38"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="AC9:AC13"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AG24:AG28"/>
+    <mergeCell ref="AG29:AG33"/>
+    <mergeCell ref="AG34:AG38"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI4:AI8"/>
+    <mergeCell ref="AI9:AI13"/>
+    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="AI19:AI23"/>
+    <mergeCell ref="AI24:AI28"/>
+    <mergeCell ref="AI29:AI33"/>
+    <mergeCell ref="AI34:AI38"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG4:AG8"/>
+    <mergeCell ref="AG9:AG13"/>
+    <mergeCell ref="AG14:AG18"/>
+    <mergeCell ref="AG19:AG23"/>
     <mergeCell ref="AO24:AO28"/>
     <mergeCell ref="AO29:AO33"/>
     <mergeCell ref="AO34:AO38"/>
@@ -3296,150 +3444,6 @@
     <mergeCell ref="AK9:AK13"/>
     <mergeCell ref="AK14:AK18"/>
     <mergeCell ref="AK19:AK23"/>
-    <mergeCell ref="AG24:AG28"/>
-    <mergeCell ref="AG29:AG33"/>
-    <mergeCell ref="AG34:AG38"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI4:AI8"/>
-    <mergeCell ref="AI9:AI13"/>
-    <mergeCell ref="AI14:AI18"/>
-    <mergeCell ref="AI19:AI23"/>
-    <mergeCell ref="AI24:AI28"/>
-    <mergeCell ref="AI29:AI33"/>
-    <mergeCell ref="AI34:AI38"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG4:AG8"/>
-    <mergeCell ref="AG9:AG13"/>
-    <mergeCell ref="AG14:AG18"/>
-    <mergeCell ref="AG19:AG23"/>
-    <mergeCell ref="AC24:AC28"/>
-    <mergeCell ref="AC29:AC33"/>
-    <mergeCell ref="AC34:AC38"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="AE9:AE13"/>
-    <mergeCell ref="AE14:AE18"/>
-    <mergeCell ref="AE19:AE23"/>
-    <mergeCell ref="AE24:AE28"/>
-    <mergeCell ref="AE29:AE33"/>
-    <mergeCell ref="AE34:AE38"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="AC9:AC13"/>
-    <mergeCell ref="AC14:AC18"/>
-    <mergeCell ref="AC19:AC23"/>
-    <mergeCell ref="Y24:Y28"/>
-    <mergeCell ref="Y29:Y33"/>
-    <mergeCell ref="Y34:Y38"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AA9:AA13"/>
-    <mergeCell ref="AA14:AA18"/>
-    <mergeCell ref="AA19:AA23"/>
-    <mergeCell ref="AA24:AA28"/>
-    <mergeCell ref="AA29:AA33"/>
-    <mergeCell ref="AA34:AA38"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y4:Y8"/>
-    <mergeCell ref="Y9:Y13"/>
-    <mergeCell ref="Y14:Y18"/>
-    <mergeCell ref="Y19:Y23"/>
-    <mergeCell ref="U24:U28"/>
-    <mergeCell ref="U29:U33"/>
-    <mergeCell ref="U34:U38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W4:W8"/>
-    <mergeCell ref="W9:W13"/>
-    <mergeCell ref="W14:W18"/>
-    <mergeCell ref="W19:W23"/>
-    <mergeCell ref="W24:W28"/>
-    <mergeCell ref="W29:W33"/>
-    <mergeCell ref="W34:W38"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="U9:U13"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="U19:U23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="S19:S23"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="O34:O38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{3FEBB42E-8616-4D5D-8357-654BD17A1F30}"/>
@@ -3472,9 +3476,11 @@
     <hyperlink ref="P4" r:id="rId28" xr:uid="{9352D43E-C1CA-47CB-88CA-8100AEFA7792}"/>
     <hyperlink ref="P9" r:id="rId29" xr:uid="{73648FB2-7F0E-4B34-9281-802716A2DE73}"/>
     <hyperlink ref="P14" r:id="rId30" xr:uid="{CD4DD884-27F3-4668-A4C2-0C115B43B4DF}"/>
+    <hyperlink ref="P24" r:id="rId31" xr:uid="{B3CC362B-2B9F-44D4-B586-47084E19F64D}"/>
+    <hyperlink ref="P29" r:id="rId32" xr:uid="{278F7693-76B1-4799-8C4E-E736BC2458DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
